--- a/sriramModel-nelson-atypical-patientID_22-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_22-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.014774756145362</v>
+        <v>1.134574319533569</v>
       </c>
       <c r="C2">
-        <v>1.095826167634854</v>
+        <v>1.119373827333564</v>
       </c>
       <c r="D2">
-        <v>1.024516562806501</v>
+        <v>1.019677010797984</v>
       </c>
       <c r="E2">
-        <v>1.112131801313605</v>
+        <v>1.071618193664508</v>
       </c>
       <c r="F2">
-        <v>1.122223802676169</v>
+        <v>1.1692454706099</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.028477849936835</v>
+        <v>1.26899249433663</v>
       </c>
       <c r="C3">
-        <v>1.187642313393323</v>
+        <v>1.236250655103786</v>
       </c>
       <c r="D3">
-        <v>1.048945390059516</v>
+        <v>1.039130822535954</v>
       </c>
       <c r="E3">
-        <v>1.212221733523214</v>
+        <v>1.142934834633007</v>
       </c>
       <c r="F3">
-        <v>1.24249331251534</v>
+        <v>1.337213770155684</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.041186958232641</v>
+        <v>1.403259574978101</v>
       </c>
       <c r="C4">
-        <v>1.275607611610757</v>
+        <v>1.348785224975423</v>
       </c>
       <c r="D4">
-        <v>1.0732850824598</v>
+        <v>1.058366799194928</v>
       </c>
       <c r="E4">
-        <v>1.301391074861677</v>
+        <v>1.213954587576231</v>
       </c>
       <c r="F4">
-        <v>1.360978319670656</v>
+        <v>1.503924134501722</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.052972158072913</v>
+        <v>1.537380392732146</v>
       </c>
       <c r="C5">
-        <v>1.359877269434496</v>
+        <v>1.453882598421071</v>
       </c>
       <c r="D5">
-        <v>1.097534255783237</v>
+        <v>1.077390217743689</v>
       </c>
       <c r="E5">
-        <v>1.380735741367703</v>
+        <v>1.28468196126119</v>
       </c>
       <c r="F5">
-        <v>1.477825162677069</v>
+        <v>1.669395023994628</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.063896760910467</v>
+        <v>1.671359532164241</v>
       </c>
       <c r="C6">
-        <v>1.44060209459766</v>
+        <v>1.547261845352426</v>
       </c>
       <c r="D6">
-        <v>1.121691531703785</v>
+        <v>1.096206118551752</v>
       </c>
       <c r="E6">
-        <v>1.451285466166163</v>
+        <v>1.355121274699775</v>
       </c>
       <c r="F6">
-        <v>1.593160905017323</v>
+        <v>1.833644120434732</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.074017777201888</v>
+        <v>1.805201338052852</v>
       </c>
       <c r="C7">
-        <v>1.517928209454311</v>
+        <v>1.624485689399451</v>
       </c>
       <c r="D7">
-        <v>1.145755529558355</v>
+        <v>1.114819317291274</v>
       </c>
       <c r="E7">
-        <v>1.513983313767059</v>
+        <v>1.425276680685639</v>
       </c>
       <c r="F7">
-        <v>1.707096891579578</v>
+        <v>1.996688422856108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.083386557481388</v>
+        <v>1.938909963095229</v>
       </c>
       <c r="C8">
-        <v>1.591996952251892</v>
+        <v>1.682831914573182</v>
       </c>
       <c r="D8">
-        <v>1.169724860194756</v>
+        <v>1.133234422569255</v>
       </c>
       <c r="E8">
-        <v>1.569679313338909</v>
+        <v>1.495152166076088</v>
       </c>
       <c r="F8">
-        <v>1.819731237473533</v>
+        <v>2.15854434887558</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.092049140657165</v>
+        <v>2.072489368236355</v>
       </c>
       <c r="C9">
-        <v>1.662944698461618</v>
+        <v>1.722616291270615</v>
       </c>
       <c r="D9">
-        <v>1.193598122547661</v>
+        <v>1.151455869068877</v>
       </c>
       <c r="E9">
-        <v>1.61913132947859</v>
+        <v>1.564751546210597</v>
       </c>
       <c r="F9">
-        <v>1.931150913616117</v>
+        <v>2.319227760334209</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.100046654345307</v>
+        <v>2.205943330299269</v>
       </c>
       <c r="C10">
-        <v>1.730902795745078</v>
+        <v>1.746745410319739</v>
       </c>
       <c r="D10">
-        <v>1.217373901302359</v>
+        <v>1.16948792178602</v>
       </c>
       <c r="E10">
-        <v>1.663010731558114</v>
+        <v>1.634078466438764</v>
       </c>
       <c r="F10">
-        <v>2.041433466790046</v>
+        <v>2.478753993009705</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.107415673537089</v>
+        <v>2.339275444660664</v>
       </c>
       <c r="C11">
-        <v>1.795997532977851</v>
+        <v>1.759126593730403</v>
       </c>
       <c r="D11">
-        <v>1.241050763861394</v>
+        <v>1.187334675169479</v>
       </c>
       <c r="E11">
-        <v>1.701910090700599</v>
+        <v>1.703136414173115</v>
       </c>
       <c r="F11">
-        <v>2.150648363036415</v>
+        <v>2.637137883760194</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.114188514388811</v>
+        <v>2.472489153293699</v>
       </c>
       <c r="C12">
-        <v>1.858350156430122</v>
+        <v>1.763344809586376</v>
       </c>
       <c r="D12">
-        <v>1.264627266314206</v>
+        <v>1.205000054065843</v>
       </c>
       <c r="E12">
-        <v>1.736351115731577</v>
+        <v>1.771928720859286</v>
       </c>
       <c r="F12">
-        <v>2.258858021243427</v>
+        <v>2.794393783043113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.120393622562973</v>
+        <v>2.605587746845322</v>
       </c>
       <c r="C13">
-        <v>1.918076927446388</v>
+        <v>1.762133963627616</v>
       </c>
       <c r="D13">
-        <v>1.28810193794394</v>
+        <v>1.222487825032812</v>
       </c>
       <c r="E13">
-        <v>1.766793007646383</v>
+        <v>1.84045856186107</v>
       </c>
       <c r="F13">
-        <v>2.366118812499282</v>
+        <v>2.950535585922882</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.126056003963223</v>
+        <v>2.738574372310592</v>
       </c>
       <c r="C14">
-        <v>1.975289201510105</v>
+        <v>1.757386676200198</v>
       </c>
       <c r="D14">
-        <v>1.311473281995351</v>
+        <v>1.239801609164275</v>
       </c>
       <c r="E14">
-        <v>1.793640020780839</v>
+        <v>1.908728957449713</v>
       </c>
       <c r="F14">
-        <v>2.472481886771514</v>
+        <v>3.10557673137289</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.131197748509619</v>
+        <v>2.87145204232072</v>
       </c>
       <c r="C15">
-        <v>2.030093525659261</v>
+        <v>1.750351544622856</v>
       </c>
       <c r="D15">
-        <v>1.33473977539844</v>
+        <v>1.256944889853734</v>
       </c>
       <c r="E15">
-        <v>1.817248415429587</v>
+        <v>1.976742774210347</v>
       </c>
       <c r="F15">
-        <v>2.577993777463524</v>
+        <v>3.259530204063553</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.135838678968939</v>
+        <v>3.004223635882226</v>
       </c>
       <c r="C16">
-        <v>2.082591756493143</v>
+        <v>1.741835986419128</v>
       </c>
       <c r="D16">
-        <v>1.357899866947365</v>
+        <v>1.27392101567534</v>
       </c>
       <c r="E16">
-        <v>1.837932639588421</v>
+        <v>2.044502727155728</v>
       </c>
       <c r="F16">
-        <v>2.682696905287</v>
+        <v>3.41240853412287</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.139997088207142</v>
+        <v>3.136891908098667</v>
       </c>
       <c r="C17">
-        <v>2.132881192352112</v>
+        <v>1.732359787016374</v>
       </c>
       <c r="D17">
-        <v>1.380951971412196</v>
+        <v>1.290733205195159</v>
       </c>
       <c r="E17">
-        <v>1.855970738737524</v>
+        <v>2.112011379710485</v>
       </c>
       <c r="F17">
-        <v>2.786630052361598</v>
+        <v>3.564223794251387</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.1436905068208</v>
+        <v>3.269459497336077</v>
       </c>
       <c r="C18">
-        <v>2.181054725852104</v>
+        <v>1.722259119376967</v>
       </c>
       <c r="D18">
-        <v>1.403894471307032</v>
+        <v>1.307384550093575</v>
       </c>
       <c r="E18">
-        <v>1.87160908654507</v>
+        <v>2.179271144855198</v>
       </c>
       <c r="F18">
-        <v>2.88982880623352</v>
+        <v>3.714987595124018</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.146936394862691</v>
+        <v>3.401928928021249</v>
       </c>
       <c r="C19">
-        <v>2.227200993987568</v>
+        <v>1.711753451046087</v>
       </c>
       <c r="D19">
-        <v>1.426725709331802</v>
+        <v>1.323878019674034</v>
       </c>
       <c r="E19">
-        <v>1.885066531803056</v>
+        <v>2.246284285455694</v>
       </c>
       <c r="F19">
-        <v>2.992325830419169</v>
+        <v>3.864711077678488</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.149752642748001</v>
+        <v>3.534302618901084</v>
       </c>
       <c r="C20">
-        <v>2.271404530036001</v>
+        <v>1.700987769244858</v>
       </c>
       <c r="D20">
-        <v>1.449443986435103</v>
+        <v>1.340216459825518</v>
       </c>
       <c r="E20">
-        <v>1.896537892802016</v>
+        <v>2.313052913664913</v>
       </c>
       <c r="F20">
-        <v>3.094151402231418</v>
+        <v>4.013404904496994</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.152157812700493</v>
+        <v>3.666582885843575</v>
       </c>
       <c r="C21">
-        <v>2.313745921375438</v>
+        <v>1.690059098930012</v>
       </c>
       <c r="D21">
-        <v>1.472047562578026</v>
+        <v>1.356402611590912</v>
       </c>
       <c r="E21">
-        <v>1.906196986057613</v>
+        <v>2.379578990667617</v>
       </c>
       <c r="F21">
-        <v>3.195333331231835</v>
+        <v>4.161079249754146</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.154171121022667</v>
+        <v>3.798771944497433</v>
       </c>
       <c r="C22">
-        <v>2.354301969434332</v>
+        <v>1.679033219990588</v>
       </c>
       <c r="D22">
-        <v>1.494534647463391</v>
+        <v>1.372439091927205</v>
       </c>
       <c r="E22">
-        <v>1.914199303599014</v>
+        <v>2.445864325899822</v>
       </c>
       <c r="F22">
-        <v>3.295897289746658</v>
+        <v>4.307743787150292</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.155812224424815</v>
+        <v>3.930871919039407</v>
       </c>
       <c r="C23">
-        <v>2.393145849237665</v>
+        <v>1.667955308660273</v>
       </c>
       <c r="D23">
-        <v>1.516903402172979</v>
+        <v>1.388328422217278</v>
       </c>
       <c r="E23">
-        <v>1.920684280631696</v>
+        <v>2.511910575547861</v>
       </c>
       <c r="F23">
-        <v>3.395867026564777</v>
+        <v>4.453407681023529</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.157100910707532</v>
+        <v>4.062884837087419</v>
       </c>
       <c r="C24">
-        <v>2.430347267401249</v>
+        <v>1.656856830773183</v>
       </c>
       <c r="D24">
-        <v>1.53915193381332</v>
+        <v>1.404073009959738</v>
       </c>
       <c r="E24">
-        <v>1.925777237778255</v>
+        <v>2.577719243239869</v>
       </c>
       <c r="F24">
-        <v>3.495264559111055</v>
+        <v>4.598079569992427</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.158056774532112</v>
+        <v>4.194812641879161</v>
       </c>
       <c r="C25">
-        <v>2.465972617280383</v>
+        <v>1.645759895435819</v>
       </c>
       <c r="D25">
-        <v>1.561278283467126</v>
+        <v>1.419675163811046</v>
       </c>
       <c r="E25">
-        <v>1.929591084476708</v>
+        <v>2.643291674556564</v>
       </c>
       <c r="F25">
-        <v>3.594110313196677</v>
+        <v>4.74176755441747</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.158698936905439</v>
+        <v>4.326657185318044</v>
       </c>
       <c r="C26">
-        <v>2.500085129390225</v>
+        <v>1.634680229277037</v>
       </c>
       <c r="D26">
-        <v>1.583280448399098</v>
+        <v>1.435137090677567</v>
       </c>
       <c r="E26">
-        <v>1.932227781937784</v>
+        <v>2.708629061797751</v>
       </c>
       <c r="F26">
-        <v>3.692423223545596</v>
+        <v>4.884479182525043</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.159045832180105</v>
+        <v>4.458420237754735</v>
       </c>
       <c r="C27">
-        <v>2.532745018751056</v>
+        <v>1.623629144728633</v>
       </c>
       <c r="D27">
-        <v>1.605156361528346</v>
+        <v>1.450460894658506</v>
       </c>
       <c r="E27">
-        <v>1.933779610240331</v>
+        <v>2.773732432244478</v>
       </c>
       <c r="F27">
-        <v>3.790220825123801</v>
+        <v>5.026221435254389</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.159115066294968</v>
+        <v>4.590103483606391</v>
       </c>
       <c r="C28">
-        <v>2.564009628188764</v>
+        <v>1.612614833658037</v>
       </c>
       <c r="D28">
-        <v>1.626903875896328</v>
+        <v>1.465648585472358</v>
       </c>
       <c r="E28">
-        <v>1.934330276409853</v>
+        <v>2.838602656629888</v>
       </c>
       <c r="F28">
-        <v>3.887519339074671</v>
+        <v>5.167000711949018</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.158923336647418</v>
+        <v>4.721708527178635</v>
       </c>
       <c r="C29">
-        <v>2.593933566943922</v>
+        <v>1.601643280534739</v>
       </c>
       <c r="D29">
-        <v>1.648520787222201</v>
+        <v>1.480702071448053</v>
       </c>
       <c r="E29">
-        <v>1.933955870072468</v>
+        <v>2.903240434234851</v>
       </c>
       <c r="F29">
-        <v>3.984333760053334</v>
+        <v>5.306822815547431</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.158486393587247</v>
+        <v>4.853236890109339</v>
       </c>
       <c r="C30">
-        <v>2.622568844273464</v>
+        <v>1.590718914260665</v>
       </c>
       <c r="D30">
-        <v>1.670004802236353</v>
+        <v>1.495623167434229</v>
       </c>
       <c r="E30">
-        <v>1.932725700002148</v>
+        <v>2.96764630092875</v>
       </c>
       <c r="F30">
-        <v>4.080677913561176</v>
+        <v>5.445692933294858</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.157819040121775</v>
+        <v>4.984690014739203</v>
       </c>
       <c r="C31">
-        <v>2.649964998297874</v>
+        <v>1.579845013994911</v>
       </c>
       <c r="D31">
-        <v>1.691353551878632</v>
+        <v>1.510413590619871</v>
       </c>
       <c r="E31">
-        <v>1.930703029869649</v>
+        <v>3.031820615198056</v>
       </c>
       <c r="F31">
-        <v>4.176564492674635</v>
+        <v>5.583615621311579</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.156935160528294</v>
+        <v>5.116069261695845</v>
       </c>
       <c r="C32">
-        <v>2.676169219729803</v>
+        <v>1.569023997064756</v>
       </c>
       <c r="D32">
-        <v>1.712564581609988</v>
+        <v>1.525074963034593</v>
       </c>
       <c r="E32">
-        <v>1.927945715902016</v>
+        <v>3.095763563319043</v>
       </c>
       <c r="F32">
-        <v>4.272005080643098</v>
+        <v>5.720594786959799</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.155847758358703</v>
+        <v>5.247375911536366</v>
       </c>
       <c r="C33">
-        <v>2.701226469900655</v>
+        <v>1.558257659954627</v>
       </c>
       <c r="D33">
-        <v>1.733635345602437</v>
+        <v>1.539608811118946</v>
       </c>
       <c r="E33">
-        <v>1.924506768840432</v>
+        <v>3.159475146549476</v>
       </c>
       <c r="F33">
-        <v>4.367010159389194</v>
+        <v>5.85663366916577</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.154568999458287</v>
+        <v>5.378611162325312</v>
       </c>
       <c r="C34">
-        <v>2.725179594744176</v>
+        <v>1.547547344071136</v>
       </c>
       <c r="D34">
-        <v>1.754563207597433</v>
+        <v>1.554016564879276</v>
       </c>
       <c r="E34">
-        <v>1.920434848944085</v>
+        <v>3.222955184668074</v>
       </c>
       <c r="F34">
-        <v>4.461589101184466</v>
+        <v>5.991734823608326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.153110261180166</v>
+        <v>5.50977612907161</v>
       </c>
       <c r="C35">
-        <v>2.748069433589608</v>
+        <v>1.536894045580075</v>
       </c>
       <c r="D35">
-        <v>1.775345430785712</v>
+        <v>1.568299557626748</v>
       </c>
       <c r="E35">
-        <v>1.915774700245786</v>
+        <v>3.286203302379699</v>
       </c>
       <c r="F35">
-        <v>4.555750139122398</v>
+        <v>6.125900098279187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.151482184926611</v>
+        <v>5.640871841745809</v>
       </c>
       <c r="C36">
-        <v>2.769934923158777</v>
+        <v>1.526298491464652</v>
       </c>
       <c r="D36">
-        <v>1.795979174530191</v>
+        <v>1.582459025161371</v>
       </c>
       <c r="E36">
-        <v>1.910567545315809</v>
+        <v>3.349218932651036</v>
       </c>
       <c r="F36">
-        <v>4.64950031292373</v>
+        <v>6.259130613174052</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.149694727332455</v>
+        <v>5.771899242071273</v>
       </c>
       <c r="C37">
-        <v>2.790813196863572</v>
+        <v>1.515761206096833</v>
       </c>
       <c r="D37">
-        <v>1.816461487906937</v>
+        <v>1.596496104420911</v>
       </c>
       <c r="E37">
-        <v>1.904851426352906</v>
+        <v>3.412001300483948</v>
       </c>
       <c r="F37">
-        <v>4.742845384994389</v>
+        <v>6.391426738845153</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.147757208446659</v>
+        <v>5.902859181949342</v>
       </c>
       <c r="C38">
-        <v>2.810739679659989</v>
+        <v>1.505282561014882</v>
       </c>
       <c r="D38">
-        <v>1.836789298659186</v>
+        <v>1.610411830313755</v>
       </c>
       <c r="E38">
-        <v>1.898661501995416</v>
+        <v>3.474549426275427</v>
       </c>
       <c r="F38">
-        <v>4.835789718880101</v>
+        <v>6.522788072704525</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.145678357165115</v>
+        <v>6.033752417446348</v>
       </c>
       <c r="C39">
-        <v>2.82974817898676</v>
+        <v>1.4948628088609</v>
       </c>
       <c r="D39">
-        <v>1.856959414101005</v>
+        <v>1.62420713815413</v>
       </c>
       <c r="E39">
-        <v>1.892030310094655</v>
+        <v>3.536862109926133</v>
       </c>
       <c r="F39">
-        <v>4.928336117000568</v>
+        <v>6.653213414529838</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.14346635503834</v>
+        <v>6.164579607400675</v>
       </c>
       <c r="C40">
-        <v>2.847870970420862</v>
+        <v>1.48450211497777</v>
       </c>
       <c r="D40">
-        <v>1.876968508562819</v>
+        <v>1.637882854031412</v>
       </c>
       <c r="E40">
-        <v>1.884988011778838</v>
+        <v>3.5989379302826</v>
       </c>
       <c r="F40">
-        <v>5.02048560266672</v>
+        <v>6.782700744871018</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.141128876792145</v>
+        <v>6.295341304135144</v>
       </c>
       <c r="C41">
-        <v>2.865138880378682</v>
+        <v>1.474200563457797</v>
       </c>
       <c r="D41">
-        <v>1.896813118388749</v>
+        <v>1.651439701275872</v>
       </c>
       <c r="E41">
-        <v>1.877562607298215</v>
+        <v>3.660775231978898</v>
       </c>
       <c r="F41">
-        <v>5.112237134365302</v>
+        <v>6.911247191267817</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.138673127453197</v>
+        <v>6.426037952385343</v>
       </c>
       <c r="C42">
-        <v>2.881581364630521</v>
+        <v>1.463958177657064</v>
       </c>
       <c r="D42">
-        <v>1.91648963214477</v>
+        <v>1.664878288433346</v>
       </c>
       <c r="E42">
-        <v>1.869780131303513</v>
+        <v>3.722372120500003</v>
       </c>
       <c r="F42">
-        <v>5.203587238489507</v>
+        <v>7.038849002600345</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.136105876645996</v>
+        <v>6.556669875703264</v>
       </c>
       <c r="C43">
-        <v>2.897226583143099</v>
+        <v>1.453774934994429</v>
       </c>
       <c r="D43">
-        <v>1.935994283705666</v>
+        <v>1.678199111513907</v>
       </c>
       <c r="E43">
-        <v>1.861664821735742</v>
+        <v>3.783726450510776</v>
       </c>
       <c r="F43">
-        <v>5.294529534910916</v>
+        <v>7.165501519032789</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.133433490352199</v>
+        <v>6.687237276161981</v>
       </c>
       <c r="C44">
-        <v>2.91210147140695</v>
+        <v>1.443650771803103</v>
       </c>
       <c r="D44">
-        <v>1.955323140615136</v>
+        <v>1.691402550311801</v>
       </c>
       <c r="E44">
-        <v>1.853239272145903</v>
+        <v>3.844835817250189</v>
       </c>
       <c r="F44">
-        <v>5.385054090139255</v>
+        <v>7.291199138545199</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.130661959618037</v>
+        <v>6.817740215044263</v>
       </c>
       <c r="C45">
-        <v>2.926231804915853</v>
+        <v>1.433585604551989</v>
       </c>
       <c r="D45">
-        <v>1.974472096547729</v>
+        <v>1.704488854812151</v>
       </c>
       <c r="E45">
-        <v>1.844524569889292</v>
+        <v>3.905697546067772</v>
       </c>
       <c r="F45">
-        <v>5.475146669036241</v>
+        <v>7.415935290068592</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.127796928198693</v>
+        <v>6.948178613861256</v>
       </c>
       <c r="C46">
-        <v>2.939642273299502</v>
+        <v>1.423579309999955</v>
       </c>
       <c r="D46">
-        <v>1.993436857340791</v>
+        <v>1.717458158590723</v>
       </c>
       <c r="E46">
-        <v>1.835540421245376</v>
+        <v>3.966308679404047</v>
       </c>
       <c r="F46">
-        <v>5.564787759734021</v>
+        <v>7.539702394200789</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.124843717102742</v>
+        <v>7.078552227612326</v>
       </c>
       <c r="C47">
-        <v>2.952356528258852</v>
+        <v>1.413631772346502</v>
       </c>
       <c r="D47">
-        <v>2.01221293241293</v>
+        <v>1.730310450456122</v>
       </c>
       <c r="E47">
-        <v>1.826305264342275</v>
+        <v>4.026665968469502</v>
       </c>
       <c r="F47">
-        <v>5.653951348268548</v>
+        <v>7.66249182692081</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.121807346729532</v>
+        <v>7.208860647713938</v>
       </c>
       <c r="C48">
-        <v>2.964397264300777</v>
+        <v>1.403742830423939</v>
       </c>
       <c r="D48">
-        <v>2.030795618676954</v>
+        <v>1.743045589213541</v>
       </c>
       <c r="E48">
-        <v>1.816836370548826</v>
+        <v>4.086765855102985</v>
       </c>
       <c r="F48">
-        <v>5.742603417962318</v>
+        <v>7.784293882985821</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.118692559149917</v>
+        <v>7.339103265568725</v>
       </c>
       <c r="C49">
-        <v>2.975786247740489</v>
+        <v>1.393912339168048</v>
       </c>
       <c r="D49">
-        <v>2.049179989979574</v>
+        <v>1.755663283671303</v>
       </c>
       <c r="E49">
-        <v>1.807149937257776</v>
+        <v>4.146604465575858</v>
       </c>
       <c r="F49">
-        <v>5.830700140864225</v>
+        <v>7.905097721454047</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.115503834873046</v>
+        <v>7.46927927828461</v>
       </c>
       <c r="C50">
-        <v>2.986544392200469</v>
+        <v>1.384140116605872</v>
       </c>
       <c r="D50">
-        <v>2.067360878993328</v>
+        <v>1.768163085344699</v>
       </c>
       <c r="E50">
-        <v>1.797261169234736</v>
+        <v>4.206177587585691</v>
       </c>
       <c r="F50">
-        <v>5.918185730640375</v>
+        <v>8.024891405509777</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.112245410988512</v>
+        <v>7.599387639397193</v>
       </c>
       <c r="C51">
-        <v>2.996691794646975</v>
+        <v>1.374425987516072</v>
       </c>
       <c r="D51">
-        <v>2.085332869290867</v>
+        <v>1.780544397197959</v>
       </c>
       <c r="E51">
-        <v>1.787184355018016</v>
+        <v>4.265480665115768</v>
       </c>
       <c r="F51">
-        <v>6.004989930771719</v>
+        <v>8.143661772258653</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.108921384739991</v>
+        <v>7.729427068720403</v>
       </c>
       <c r="C52">
-        <v>3.006248200116037</v>
+        <v>1.364769758157866</v>
       </c>
       <c r="D52">
-        <v>2.103090392779546</v>
+        <v>1.792806433791356</v>
       </c>
       <c r="E52">
-        <v>1.776933044769679</v>
+        <v>4.324508769699449</v>
       </c>
       <c r="F52">
-        <v>6.091025240105952</v>
+        <v>8.261394443040411</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.152287614991327</v>
+        <v>7.859395985928973</v>
       </c>
       <c r="C53">
-        <v>3.180181945323192</v>
+        <v>1.355171231692162</v>
       </c>
       <c r="D53">
-        <v>2.325739063689962</v>
+        <v>1.804948250189331</v>
       </c>
       <c r="E53">
-        <v>1.864343583613968</v>
+        <v>4.383256598978027</v>
       </c>
       <c r="F53">
-        <v>7.487285901105554</v>
+        <v>8.378073763944226</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.194570172686422</v>
+        <v>7.989292526382174</v>
       </c>
       <c r="C54">
-        <v>3.348362993160765</v>
+        <v>1.345630205619388</v>
       </c>
       <c r="D54">
-        <v>2.546033302302831</v>
+        <v>1.816968694665027</v>
       </c>
       <c r="E54">
-        <v>1.948886681645287</v>
+        <v>4.441718444347893</v>
       </c>
       <c r="F54">
-        <v>8.872680145436856</v>
+        <v>8.493682798525281</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.235809074323656</v>
+        <v>8.119114451837305</v>
       </c>
       <c r="C55">
-        <v>3.510972255723907</v>
+        <v>1.336146472818</v>
       </c>
       <c r="D55">
-        <v>2.763918797636009</v>
+        <v>1.828866421686454</v>
       </c>
       <c r="E55">
-        <v>2.030700476255978</v>
+        <v>4.49988818666635</v>
       </c>
       <c r="F55">
-        <v>10.2461152841916</v>
+        <v>8.608203310599992</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.276042486345001</v>
+        <v>8.248859174750725</v>
       </c>
       <c r="C56">
-        <v>3.668183185361007</v>
+        <v>1.326719819532854</v>
       </c>
       <c r="D56">
-        <v>2.97933650938281</v>
+        <v>1.840639876551089</v>
       </c>
       <c r="E56">
-        <v>2.109913506984934</v>
+        <v>4.557759256887774</v>
       </c>
       <c r="F56">
-        <v>11.60600697861613</v>
+        <v>8.721615745693844</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.315306689671906</v>
+        <v>8.378523638557436</v>
       </c>
       <c r="C57">
-        <v>3.82016311910271</v>
+        <v>1.317350034392624</v>
       </c>
       <c r="D57">
-        <v>3.192222307346543</v>
+        <v>1.852287254855869</v>
       </c>
       <c r="E57">
-        <v>2.186645721456777</v>
+        <v>4.615324638073422</v>
       </c>
       <c r="F57">
-        <v>12.95032424315441</v>
+        <v>8.833899226826537</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.353636152650575</v>
+        <v>8.508104353723546</v>
       </c>
       <c r="C58">
-        <v>3.967073163486942</v>
+        <v>1.308036906347351</v>
       </c>
       <c r="D58">
-        <v>3.40250669970722</v>
+        <v>1.86380655056816</v>
       </c>
       <c r="E58">
-        <v>2.261009256229578</v>
+        <v>4.672576816361861</v>
       </c>
       <c r="F58">
-        <v>14.27660425816636</v>
+        <v>8.94503155848955</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.391063581219871</v>
+        <v>8.63759723750103</v>
       </c>
       <c r="C59">
-        <v>4.109068659637998</v>
+        <v>1.29878020548845</v>
       </c>
       <c r="D59">
-        <v>3.61011438162529</v>
+        <v>1.87519546751809</v>
       </c>
       <c r="E59">
-        <v>2.333109128482806</v>
+        <v>4.72950778508838</v>
       </c>
       <c r="F59">
-        <v>15.58196220156485</v>
+        <v>9.054989256035299</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.427620117551609</v>
+        <v>8.766997666215492</v>
       </c>
       <c r="C60">
-        <v>4.246299764206612</v>
+        <v>1.28957971649823</v>
       </c>
       <c r="D60">
-        <v>3.814964052485531</v>
+        <v>1.886451435904391</v>
       </c>
       <c r="E60">
-        <v>2.403043819535489</v>
+        <v>4.786108990938418</v>
       </c>
       <c r="F60">
-        <v>16.86310582515243</v>
+        <v>9.163747597437359</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.463335435406749</v>
+        <v>8.896300261039315</v>
       </c>
       <c r="C61">
-        <v>4.378911732820442</v>
+        <v>1.280435226246083</v>
       </c>
       <c r="D61">
-        <v>4.016968090475123</v>
+        <v>1.897571589182082</v>
       </c>
       <c r="E61">
-        <v>2.470905621131434</v>
+        <v>4.842371337043102</v>
       </c>
       <c r="F61">
-        <v>18.11636423836254</v>
+        <v>9.271280685460601</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.498237808277464</v>
+        <v>9.025498962478572</v>
       </c>
       <c r="C62">
-        <v>4.507045172397963</v>
+        <v>1.271346506212684</v>
       </c>
       <c r="D62">
-        <v>4.216032116658167</v>
+        <v>1.908552747927777</v>
       </c>
       <c r="E62">
-        <v>2.536781510801133</v>
+        <v>4.898285124414955</v>
       </c>
       <c r="F62">
-        <v>19.33773743573951</v>
+        <v>9.377561564454764</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.532354184810534</v>
+        <v>9.154586744433399</v>
       </c>
       <c r="C63">
-        <v>4.63083634602285</v>
+        <v>1.262313324916805</v>
       </c>
       <c r="D63">
-        <v>4.412054517320313</v>
+        <v>1.919391394436897</v>
       </c>
       <c r="E63">
-        <v>2.600753477822113</v>
+        <v>4.953840055003751</v>
       </c>
       <c r="F63">
-        <v>20.52297138927938</v>
+        <v>9.482562355558468</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.565710276700097</v>
+        <v>9.283555718660851</v>
       </c>
       <c r="C64">
-        <v>4.750417459703347</v>
+        <v>1.253335466765373</v>
       </c>
       <c r="D64">
-        <v>4.604925962484938</v>
+        <v>1.93008364647883</v>
       </c>
       <c r="E64">
-        <v>2.662898737886677</v>
+        <v>5.009025166376372</v>
       </c>
       <c r="F64">
-        <v>21.66766138107257</v>
+        <v>9.586254436480134</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.598330637047405</v>
+        <v>9.412396753985899</v>
       </c>
       <c r="C65">
-        <v>4.865916894882829</v>
+        <v>1.244412706369757</v>
       </c>
       <c r="D65">
-        <v>4.794528862234796</v>
+        <v>1.940625230163276</v>
       </c>
       <c r="E65">
-        <v>2.72329015615019</v>
+        <v>5.063828834957973</v>
       </c>
       <c r="F65">
-        <v>22.76738314913741</v>
+        <v>9.688608643605306</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.630238727003596</v>
+        <v>9.541099620687316</v>
       </c>
       <c r="C66">
-        <v>4.977459410870027</v>
+        <v>1.235544805553353</v>
       </c>
       <c r="D66">
-        <v>4.980736732723863</v>
+        <v>1.95101145080853</v>
       </c>
       <c r="E66">
-        <v>2.781996626252289</v>
+        <v>5.118238707783159</v>
       </c>
       <c r="F66">
-        <v>23.81784708010048</v>
+        <v>9.78959555261631</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.661456975838828</v>
+        <v>9.66965248508126</v>
       </c>
       <c r="C67">
-        <v>5.085166332474887</v>
+        <v>1.226731540954046</v>
       </c>
       <c r="D67">
-        <v>5.163413583552598</v>
+        <v>1.961237161200669</v>
       </c>
       <c r="E67">
-        <v>2.839083341637397</v>
+        <v>5.172241696908095</v>
       </c>
       <c r="F67">
-        <v>24.81506811847044</v>
+        <v>9.889185788909886</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.69200684029453</v>
+        <v>9.798042103433941</v>
       </c>
       <c r="C68">
-        <v>5.189155713799942</v>
+        <v>1.217972683083103</v>
       </c>
       <c r="D68">
-        <v>5.342413183645914</v>
+        <v>1.971296725573065</v>
       </c>
       <c r="E68">
-        <v>2.894612029295729</v>
+        <v>5.225823917892142</v>
       </c>
       <c r="F68">
-        <v>25.75553828584123</v>
+        <v>9.987350379494588</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.721908867624081</v>
+        <v>9.926253168203335</v>
       </c>
       <c r="C69">
-        <v>5.289542507793704</v>
+        <v>1.209267998670105</v>
       </c>
       <c r="D69">
-        <v>5.517578369757278</v>
+        <v>1.981183986254718</v>
       </c>
       <c r="E69">
-        <v>2.94864119390565</v>
+        <v>5.278970669945826</v>
       </c>
       <c r="F69">
-        <v>26.63638757762875</v>
+        <v>10.08406112735149</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.751182714561784</v>
+        <v>10.05426853234357</v>
       </c>
       <c r="C70">
-        <v>5.386438643246516</v>
+        <v>1.200617256397749</v>
       </c>
       <c r="D70">
-        <v>5.68874025118348</v>
+        <v>1.990892219770187</v>
       </c>
       <c r="E70">
-        <v>3.001226348159078</v>
+        <v>5.331666383105283</v>
       </c>
       <c r="F70">
-        <v>27.45551733517247</v>
+        <v>10.17929105194599</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.779847213526819</v>
+        <v>10.18206842021439</v>
       </c>
       <c r="C71">
-        <v>5.479953150648494</v>
+        <v>1.192020223141099</v>
       </c>
       <c r="D71">
-        <v>5.855717496186915</v>
+        <v>2.000414091993151</v>
       </c>
       <c r="E71">
-        <v>3.052420209694496</v>
+        <v>5.383894584427334</v>
       </c>
       <c r="F71">
-        <v>28.21169362313043</v>
+        <v>10.27301482617442</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.807920434882947</v>
+        <v>10.30963061835184</v>
       </c>
       <c r="C72">
-        <v>5.570192289900437</v>
+        <v>1.183476667301574</v>
       </c>
       <c r="D72">
-        <v>6.018315606470022</v>
+        <v>2.009741611416096</v>
       </c>
       <c r="E72">
-        <v>3.102272867815968</v>
+        <v>5.435637853541285</v>
       </c>
       <c r="F72">
-        <v>28.90459097082688</v>
+        <v>10.36520920963214</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.835419685082894</v>
+        <v>10.43692973900344</v>
       </c>
       <c r="C73">
-        <v>5.657259602026056</v>
+        <v>1.174986355990783</v>
       </c>
       <c r="D73">
-        <v>6.176326347031596</v>
+        <v>2.01886607779761</v>
       </c>
       <c r="E73">
-        <v>3.150832004412118</v>
+        <v>5.486877777056936</v>
       </c>
       <c r="F73">
-        <v>29.53478322772866</v>
+        <v>10.45585349405195</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.862361609396248</v>
+        <v>10.56393687505117</v>
       </c>
       <c r="C74">
-        <v>5.741256015123316</v>
+        <v>1.16654905572992</v>
       </c>
       <c r="D74">
-        <v>6.329527372313235</v>
+        <v>2.027778027056331</v>
       </c>
       <c r="E74">
-        <v>3.198142968731777</v>
+        <v>5.537594911378469</v>
       </c>
       <c r="F74">
-        <v>30.10368460591592</v>
+        <v>10.5449298810891</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.888762178277923</v>
+        <v>10.69061911434933</v>
       </c>
       <c r="C75">
-        <v>5.822279874964415</v>
+        <v>1.158164533197619</v>
       </c>
       <c r="D75">
-        <v>6.477682221615388</v>
+        <v>2.036467170791677</v>
       </c>
       <c r="E75">
-        <v>3.244249028629776</v>
+        <v>5.587768729592137</v>
       </c>
       <c r="F75">
-        <v>30.61344994019626</v>
+        <v>10.63242381966949</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.914636749261367</v>
+        <v>10.81693903870707</v>
       </c>
       <c r="C76">
-        <v>5.900426975974073</v>
+        <v>1.149832555012815</v>
       </c>
       <c r="D76">
-        <v>6.620540893973507</v>
+        <v>2.044922354937541</v>
       </c>
       <c r="E76">
-        <v>3.289191382070655</v>
+        <v>5.637377589165206</v>
       </c>
       <c r="F76">
-        <v>31.06684554619569</v>
+        <v>10.71832428761579</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.940000068787118</v>
+        <v>10.9428541772766</v>
       </c>
       <c r="C77">
-        <v>5.975790619632203</v>
+        <v>1.141552888345369</v>
       </c>
       <c r="D77">
-        <v>6.757841319686073</v>
+        <v>2.053131448714038</v>
       </c>
       <c r="E77">
-        <v>3.333009363823462</v>
+        <v>5.686398679314856</v>
       </c>
       <c r="F77">
-        <v>31.46710503314397</v>
+        <v>10.80262399397884</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.964866323122265</v>
+        <v>11.06831626103633</v>
       </c>
       <c r="C78">
-        <v>6.048461633571381</v>
+        <v>1.133325300085619</v>
       </c>
       <c r="D78">
-        <v>6.889312052659636</v>
+        <v>2.061081302452946</v>
       </c>
       <c r="E78">
-        <v>3.375740508519355</v>
+        <v>5.734807988632276</v>
       </c>
       <c r="F78">
-        <v>31.81778307738867</v>
+        <v>10.88531948927516</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.989249152831433</v>
+        <v>11.19327045605501</v>
       </c>
       <c r="C79">
-        <v>6.118528415565692</v>
+        <v>1.125149554986227</v>
       </c>
       <c r="D79">
-        <v>7.014676800370869</v>
+        <v>2.068757684788745</v>
       </c>
       <c r="E79">
-        <v>3.417420653413667</v>
+        <v>5.782580266881713</v>
       </c>
       <c r="F79">
-        <v>32.12261520611489</v>
+        <v>10.96641118585569</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.013161689079963</v>
+        <v>11.31765465280971</v>
       </c>
       <c r="C80">
-        <v>6.186076957780015</v>
+        <v>1.117025420444356</v>
       </c>
       <c r="D80">
-        <v>7.133661307526088</v>
+        <v>2.076145218194378</v>
       </c>
       <c r="E80">
-        <v>3.458084079278173</v>
+        <v>5.829688983654045</v>
       </c>
       <c r="F80">
-        <v>32.38539732569862</v>
+        <v>11.04590329662897</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.03661657204983</v>
+        <v>11.44139838153853</v>
       </c>
       <c r="C81">
-        <v>6.251190876632679</v>
+        <v>1.108952663128095</v>
       </c>
       <c r="D81">
-        <v>7.24600369906554</v>
+        <v>2.083227288603148</v>
       </c>
       <c r="E81">
-        <v>3.497763541528319</v>
+        <v>5.876106326958412</v>
       </c>
       <c r="F81">
-        <v>32.60988399933122</v>
+        <v>11.12380369463946</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.059625976782683</v>
+        <v>11.56442191466888</v>
       </c>
       <c r="C82">
-        <v>6.313951428148286</v>
+        <v>1.100931047937727</v>
       </c>
       <c r="D82">
-        <v>7.351467393048297</v>
+        <v>2.089985979757244</v>
       </c>
       <c r="E82">
-        <v>3.536490421649384</v>
+        <v>5.921803138668972</v>
       </c>
       <c r="F82">
-        <v>32.79970797643148</v>
+        <v>11.200123715676</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.082201657559736</v>
+        <v>11.68663529819196</v>
       </c>
       <c r="C83">
-        <v>6.374437532207057</v>
+        <v>1.092960341258829</v>
       </c>
       <c r="D83">
-        <v>7.44985796992597</v>
+        <v>2.096402036633253</v>
       </c>
       <c r="E83">
-        <v>3.574294740055705</v>
+        <v>5.96674898366938</v>
       </c>
       <c r="F83">
-        <v>32.95832206095417</v>
+        <v>11.27487790781397</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.104354955270575</v>
+        <v>11.80793715776199</v>
       </c>
       <c r="C84">
-        <v>6.432725796845306</v>
+        <v>1.085040308964554</v>
       </c>
       <c r="D84">
-        <v>7.541042067732765</v>
+        <v>2.102454827233932</v>
       </c>
       <c r="E84">
-        <v>3.611205307283724</v>
+        <v>6.010912030064791</v>
       </c>
       <c r="F84">
-        <v>33.08895970534417</v>
+        <v>11.34808373315139</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.126096684055278</v>
+        <v>11.92821364880386</v>
       </c>
       <c r="C85">
-        <v>6.488890362301753</v>
+        <v>1.077170716934821</v>
       </c>
       <c r="D85">
-        <v>7.624966134043061</v>
+        <v>2.108122321733722</v>
       </c>
       <c r="E85">
-        <v>3.647249557861242</v>
+        <v>6.054259216130015</v>
       </c>
       <c r="F85">
-        <v>33.19461038092037</v>
+        <v>11.41976125632253</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.1152640141076</v>
+        <v>12.04733741370469</v>
       </c>
       <c r="C86">
-        <v>6.479197401558025</v>
+        <v>1.069351330950951</v>
       </c>
       <c r="D86">
-        <v>7.620154189182671</v>
+        <v>2.113381105317497</v>
       </c>
       <c r="E86">
-        <v>3.622783293836833</v>
+        <v>6.096756205142273</v>
       </c>
       <c r="F86">
-        <v>33.12000379617042</v>
+        <v>11.48993282301056</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.104456927077745</v>
+        <v>12.16516648172051</v>
       </c>
       <c r="C87">
-        <v>6.469334074048429</v>
+        <v>1.061581916646893</v>
       </c>
       <c r="D87">
-        <v>7.614649122405094</v>
+        <v>2.118206436129496</v>
       </c>
       <c r="E87">
-        <v>3.598343263714031</v>
+        <v>6.138367493101398</v>
       </c>
       <c r="F87">
-        <v>33.04349083494676</v>
+        <v>11.5586227385224</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.093676643479484</v>
+        <v>12.28154350240672</v>
       </c>
       <c r="C88">
-        <v>6.459306946419837</v>
+        <v>1.053862239897808</v>
       </c>
       <c r="D88">
-        <v>7.608476307835091</v>
+        <v>2.122572364878257</v>
       </c>
       <c r="E88">
-        <v>3.573931815140583</v>
+        <v>6.179056502098643</v>
       </c>
       <c r="F88">
-        <v>32.96529111890989</v>
+        <v>11.62585695421263</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2.082923888754782</v>
+        <v>12.39629502487975</v>
       </c>
       <c r="C89">
-        <v>6.449122496658914</v>
+        <v>1.046192067003784</v>
       </c>
       <c r="D89">
-        <v>7.601668969285597</v>
+        <v>2.126451923559743</v>
       </c>
       <c r="E89">
-        <v>3.549551437288183</v>
+        <v>6.21878568538719</v>
       </c>
       <c r="F89">
-        <v>32.8856058497766</v>
+        <v>11.69166276925539</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.072199356278676</v>
+        <v>12.50923105684231</v>
       </c>
       <c r="C90">
-        <v>6.438787090148467</v>
+        <v>1.0385711638206</v>
       </c>
       <c r="D90">
-        <v>7.594266979086332</v>
+        <v>2.129817401270688</v>
       </c>
       <c r="E90">
-        <v>3.525204512891947</v>
+        <v>6.257516713982791</v>
       </c>
       <c r="F90">
-        <v>32.80461483398842</v>
+        <v>11.75606855416173</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.061503709223033</v>
+        <v>12.62014543568069</v>
       </c>
       <c r="C91">
-        <v>6.428306797704941</v>
+        <v>1.030999296530718</v>
       </c>
       <c r="D91">
-        <v>7.586314398182993</v>
+        <v>2.13264072421418</v>
       </c>
       <c r="E91">
-        <v>3.50089336266832</v>
+        <v>6.295210710582051</v>
       </c>
       <c r="F91">
-        <v>32.72247746350583</v>
+        <v>11.81910350272349</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.050837582222514</v>
+        <v>12.72881655766921</v>
       </c>
       <c r="C92">
-        <v>6.417687446002061</v>
+        <v>1.023476231551918</v>
       </c>
       <c r="D92">
-        <v>7.57785710657825</v>
+        <v>2.134893944781253</v>
       </c>
       <c r="E92">
-        <v>3.476620236553077</v>
+        <v>6.331828548567445</v>
       </c>
       <c r="F92">
-        <v>32.63933528082487</v>
+        <v>11.88079739942751</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.040201584896529</v>
+        <v>12.83500874294939</v>
       </c>
       <c r="C93">
-        <v>6.406934690328739</v>
+        <v>1.016001735422116</v>
       </c>
       <c r="D93">
-        <v>7.568940756668432</v>
+        <v>2.136549849737928</v>
       </c>
       <c r="E93">
-        <v>3.452387305209091</v>
+        <v>6.367331172320943</v>
       </c>
       <c r="F93">
-        <v>32.55531359326328</v>
+        <v>11.94118041563985</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.029596297769531</v>
+        <v>12.93847443635622</v>
       </c>
       <c r="C94">
-        <v>6.39605400955389</v>
+        <v>1.008575574929349</v>
       </c>
       <c r="D94">
-        <v>7.55960935273761</v>
+        <v>2.137582666419374</v>
       </c>
       <c r="E94">
-        <v>3.428196675450758</v>
+        <v>6.401679972512661</v>
       </c>
       <c r="F94">
-        <v>32.4705229490729</v>
+        <v>12.00028293126018</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.019022288763652</v>
+        <v>13.03895745613481</v>
       </c>
       <c r="C95">
-        <v>6.385050689298527</v>
+        <v>1.001197516707325</v>
       </c>
       <c r="D95">
-        <v>7.549904272848014</v>
+        <v>2.137968842527822</v>
       </c>
       <c r="E95">
-        <v>3.404050396038734</v>
+        <v>6.434837238969271</v>
       </c>
       <c r="F95">
-        <v>32.38506064927331</v>
+        <v>12.0581353872244</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.008480099277981</v>
+        <v>13.13619723314377</v>
       </c>
       <c r="C96">
-        <v>6.373929834102837</v>
+        <v>0.9938673278595523</v>
       </c>
       <c r="D96">
-        <v>7.539863741701572</v>
+        <v>2.13768784922735</v>
       </c>
       <c r="E96">
-        <v>3.379950450108126</v>
+        <v>6.466766686582133</v>
       </c>
       <c r="F96">
-        <v>32.29901246960188</v>
+        <v>12.11476813622006</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.99797024932856</v>
+        <v>13.22993411644343</v>
       </c>
       <c r="C97">
-        <v>6.362696361778799</v>
+        <v>0.9865847757079891</v>
       </c>
       <c r="D97">
-        <v>7.52952263491026</v>
+        <v>2.136722954408348</v>
       </c>
       <c r="E97">
-        <v>3.355898772105438</v>
+        <v>6.497434024110063</v>
       </c>
       <c r="F97">
-        <v>32.21245405276342</v>
+        <v>12.17021134211328</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.987493240917915</v>
+        <v>13.31991550400729</v>
       </c>
       <c r="C98">
-        <v>6.351355013669347</v>
+        <v>0.9793496276100679</v>
       </c>
       <c r="D98">
-        <v>7.518912473708776</v>
+        <v>2.135061870120029</v>
       </c>
       <c r="E98">
-        <v>3.331897236591946</v>
+        <v>6.526807556219103</v>
       </c>
       <c r="F98">
-        <v>32.12545197631339</v>
+        <v>12.22449486339385</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.977049550359033</v>
+        <v>13.40590266731962</v>
       </c>
       <c r="C99">
-        <v>6.339910363611645</v>
+        <v>0.9721616510924231</v>
       </c>
       <c r="D99">
-        <v>7.508061564151221</v>
+        <v>2.132697227429142</v>
       </c>
       <c r="E99">
-        <v>3.307947671499656</v>
+        <v>6.554858808098079</v>
       </c>
       <c r="F99">
-        <v>32.03806500377055</v>
+        <v>12.27764817338779</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.96663963776164</v>
+        <v>13.48767800617328</v>
       </c>
       <c r="C100">
-        <v>6.328366813138769</v>
+        <v>0.9650206140446999</v>
       </c>
       <c r="D100">
-        <v>7.496995247578854</v>
+        <v>2.129626825795704</v>
       </c>
       <c r="E100">
-        <v>3.284051855470991</v>
+        <v>6.581563152272841</v>
       </c>
       <c r="F100">
-        <v>31.95034471817255</v>
+        <v>12.32970033056641</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.95626394315714</v>
+        <v>13.56505231275293</v>
       </c>
       <c r="C101">
-        <v>6.316728612210766</v>
+        <v>0.9579262845218829</v>
       </c>
       <c r="D101">
-        <v>7.485736165115675</v>
+        <v>2.125853637428479</v>
       </c>
       <c r="E101">
-        <v>3.260211517568974</v>
+        <v>6.606900408171066</v>
       </c>
       <c r="F101">
-        <v>31.86233642098413</v>
+        <v>12.3806798883405</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.945922890810336</v>
+        <v>13.63787156152731</v>
       </c>
       <c r="C102">
-        <v>6.304999849700686</v>
+        <v>0.9508784308278505</v>
       </c>
       <c r="D102">
-        <v>7.474304507003174</v>
+        <v>2.121385561296089</v>
       </c>
       <c r="E102">
-        <v>3.236428346778942</v>
+        <v>6.630855384072807</v>
       </c>
       <c r="F102">
-        <v>31.77408004875067</v>
+        <v>12.43061486799579</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.935616888092832</v>
+        <v>13.70602273128447</v>
       </c>
       <c r="C103">
-        <v>6.293184468593344</v>
+        <v>0.9438768214886263</v>
       </c>
       <c r="D103">
-        <v>7.462718264034606</v>
+        <v>2.11623497836094</v>
       </c>
       <c r="E103">
-        <v>3.212703981233834</v>
+        <v>6.653418326869277</v>
       </c>
       <c r="F103">
-        <v>31.68561080386789</v>
+        <v>12.47953272506035</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.925346325617175</v>
+        <v>13.76943820718243</v>
       </c>
       <c r="C104">
-        <v>6.281286265638105</v>
+        <v>0.9369212252930608</v>
       </c>
       <c r="D104">
-        <v>7.450993473873144</v>
+        <v>2.110418173249078</v>
       </c>
       <c r="E104">
-        <v>3.189040024234627</v>
+        <v>6.674585251855615</v>
       </c>
       <c r="F104">
-        <v>31.59695984596375</v>
+        <v>12.52746031513035</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.915111578557767</v>
+        <v>13.82809848065137</v>
       </c>
       <c r="C105">
-        <v>6.26930889568402</v>
+        <v>0.9300114114328393</v>
       </c>
       <c r="D105">
-        <v>7.439144446852467</v>
+        <v>2.10395466124133</v>
       </c>
       <c r="E105">
-        <v>3.16543803133814</v>
+        <v>6.694358128357215</v>
       </c>
       <c r="F105">
-        <v>31.50815462742201</v>
+        <v>12.57442386968781</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.904913006763741</v>
+        <v>13.88203284876125</v>
       </c>
       <c r="C106">
-        <v>6.257255879056209</v>
+        <v>0.9231471492650642</v>
       </c>
       <c r="D106">
-        <v>7.42718396339945</v>
+        <v>2.09686650247608</v>
       </c>
       <c r="E106">
-        <v>3.14189952604269</v>
+        <v>6.712744910209839</v>
       </c>
       <c r="F106">
-        <v>31.4192194346936</v>
+        <v>12.62044899814321</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.894750955423534</v>
+        <v>13.93131737605087</v>
       </c>
       <c r="C107">
-        <v>6.245130602197413</v>
+        <v>0.9163282084933023</v>
       </c>
       <c r="D107">
-        <v>7.415123449137843</v>
+        <v>2.089177642717359</v>
       </c>
       <c r="E107">
-        <v>3.118425989508391</v>
+        <v>6.72975940824127</v>
       </c>
       <c r="F107">
-        <v>31.33017582239757</v>
+        <v>12.66556067211766</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.884625755660686</v>
+        <v>13.97607214731736</v>
       </c>
       <c r="C108">
-        <v>6.232936325953073</v>
+        <v>0.9095543591537119</v>
       </c>
       <c r="D108">
-        <v>7.40297313268101</v>
+        <v>2.080913310900187</v>
       </c>
       <c r="E108">
-        <v>3.095018876086349</v>
+        <v>6.745420995019293</v>
       </c>
       <c r="F108">
-        <v>31.24104272893033</v>
+        <v>12.70978321913422</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.874537722419415</v>
+        <v>14.01645642229222</v>
       </c>
       <c r="C109">
-        <v>6.220676188850904</v>
+        <v>0.9028253716119922</v>
       </c>
       <c r="D109">
-        <v>7.390742185209736</v>
+        <v>2.072099496469376</v>
       </c>
       <c r="E109">
-        <v>3.071679592314013</v>
+        <v>6.759754184320068</v>
       </c>
       <c r="F109">
-        <v>31.15183696096286</v>
+        <v>12.75314033454519</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.864487162630996</v>
+        <v>14.05266235817999</v>
       </c>
       <c r="C110">
-        <v>6.208353211451199</v>
+        <v>0.8961410165791516</v>
       </c>
       <c r="D110">
-        <v>7.3784388426812</v>
+        <v>2.062762510290515</v>
       </c>
       <c r="E110">
-        <v>3.048409509686479</v>
+        <v>6.772788097652938</v>
       </c>
       <c r="F110">
-        <v>31.06257343167693</v>
+        <v>12.79565507433236</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.854474363859402</v>
+        <v>14.08490806940596</v>
       </c>
       <c r="C111">
-        <v>6.195970302062578</v>
+        <v>0.889501065094581</v>
       </c>
       <c r="D111">
-        <v>7.366070513015212</v>
+        <v>2.052928631004039</v>
       </c>
       <c r="E111">
-        <v>3.025209997119181</v>
+        <v>6.784555852394554</v>
       </c>
       <c r="F111">
-        <v>30.97326537545275</v>
+        <v>12.8373498605986</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.844499602519682</v>
+        <v>14.11343065393094</v>
       </c>
       <c r="C112">
-        <v>6.183530259199206</v>
+        <v>0.8829052885342157</v>
       </c>
       <c r="D112">
-        <v>7.353643869455797</v>
+        <v>2.042623823005858</v>
       </c>
       <c r="E112">
-        <v>3.002082353106625</v>
+        <v>6.79509390464935</v>
       </c>
       <c r="F112">
-        <v>30.88392455371674</v>
+        <v>12.87824649478691</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.834563147641654</v>
+        <v>14.13847929505003</v>
       </c>
       <c r="C113">
-        <v>6.171035776540966</v>
+        <v>0.8763534586955272</v>
       </c>
       <c r="D113">
-        <v>7.341164933392783</v>
+        <v>2.03187353111637</v>
       </c>
       <c r="E113">
-        <v>2.979027850236076</v>
+        <v>6.804441378513463</v>
       </c>
       <c r="F113">
-        <v>30.79456148241116</v>
+        <v>12.91836616451261</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.824665250178336</v>
+        <v>14.16030881205573</v>
       </c>
       <c r="C114">
-        <v>6.158489450213969</v>
+        <v>0.8698453477294492</v>
       </c>
       <c r="D114">
-        <v>7.328639146887393</v>
+        <v>2.020702520710182</v>
       </c>
       <c r="E114">
-        <v>2.956047762028438</v>
+        <v>6.81263940955543</v>
       </c>
       <c r="F114">
-        <v>30.70518549627158</v>
+        <v>12.95772945217738</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.814806153151254</v>
+        <v>14.17917400612731</v>
       </c>
       <c r="C115">
-        <v>6.145893776521869</v>
+        <v>0.8633807281207982</v>
       </c>
       <c r="D115">
-        <v>7.316071434565532</v>
+        <v>2.009134758977792</v>
       </c>
       <c r="E115">
-        <v>2.933143310768517</v>
+        <v>6.819730524884656</v>
       </c>
       <c r="F115">
-        <v>30.615804919319</v>
+        <v>12.99635635145751</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.804986089261116</v>
+        <v>14.19532493833725</v>
       </c>
       <c r="C116">
-        <v>6.133251156458372</v>
+        <v>0.8569593728058587</v>
       </c>
       <c r="D116">
-        <v>7.303466262131269</v>
+        <v>1.997193351616089</v>
       </c>
       <c r="E116">
-        <v>2.910315686335109</v>
+        <v>6.825758076069991</v>
       </c>
       <c r="F116">
-        <v>30.52642719706259</v>
+        <v>13.03426627699641</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.795205279284674</v>
+        <v>14.20900312931173</v>
       </c>
       <c r="C117">
-        <v>6.120563910538412</v>
+        <v>0.8505810551033945</v>
       </c>
       <c r="D117">
-        <v>7.290827685218571</v>
+        <v>1.984900509110952</v>
       </c>
       <c r="E117">
-        <v>2.887566063848185</v>
+        <v>6.83076573517991</v>
       </c>
       <c r="F117">
-        <v>30.43705896825028</v>
+        <v>13.07147807739007</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.785463933871315</v>
+        <v>14.22043866765552</v>
       </c>
       <c r="C118">
-        <v>6.107834267669656</v>
+        <v>0.844245548733513</v>
       </c>
       <c r="D118">
-        <v>7.278159391188471</v>
+        <v>1.972277527803301</v>
       </c>
       <c r="E118">
-        <v>2.864895597823081</v>
+        <v>6.834797060373508</v>
       </c>
       <c r="F118">
-        <v>30.3477061746396</v>
+        <v>13.10801005019358</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.775762254596991</v>
+        <v>14.2298482154851</v>
       </c>
       <c r="C119">
-        <v>6.095064368679713</v>
+        <v>0.8379526278423618</v>
       </c>
       <c r="D119">
-        <v>7.265464745815161</v>
+        <v>1.959344783799468</v>
       </c>
       <c r="E119">
-        <v>2.842305408003878</v>
+        <v>6.83789512382285</v>
       </c>
       <c r="F119">
-        <v>30.25837415056944</v>
+        <v>13.14387995535763</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.766100433196996</v>
+        <v>14.23743375688422</v>
       </c>
       <c r="C120">
-        <v>6.082256287810247</v>
+        <v>0.8317020670014962</v>
       </c>
       <c r="D120">
-        <v>7.252746812180893</v>
+        <v>1.946121740973423</v>
       </c>
       <c r="E120">
-        <v>2.819796594600237</v>
+        <v>6.840102216002189</v>
       </c>
       <c r="F120">
-        <v>30.1690676775808</v>
+        <v>13.17910502901699</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.756478650604056</v>
+        <v>14.24338196606982</v>
       </c>
       <c r="C121">
-        <v>6.069412016978582</v>
+        <v>0.8254936412263524</v>
       </c>
       <c r="D121">
-        <v>7.240008388218437</v>
+        <v>1.932626971475337</v>
       </c>
       <c r="E121">
-        <v>2.79737023088511</v>
+        <v>6.841459604332979</v>
       </c>
       <c r="F121">
-        <v>30.07979104515819</v>
+        <v>13.21370199886847</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.746897080174151</v>
+        <v>14.24786408794634</v>
       </c>
       <c r="C122">
-        <v>6.056533468413677</v>
+        <v>0.819327125978407</v>
       </c>
       <c r="D122">
-        <v>7.227252033178528</v>
+        <v>1.918878184511447</v>
       </c>
       <c r="E122">
-        <v>2.775027374174288</v>
+        <v>6.842007348121555</v>
       </c>
       <c r="F122">
-        <v>29.99054811712222</v>
+        <v>13.24768709791123</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.737355885568767</v>
+        <v>14.2510362272838</v>
       </c>
       <c r="C123">
-        <v>6.043622495755194</v>
+        <v>0.8132022971712365</v>
       </c>
       <c r="D123">
-        <v>7.214480091535857</v>
+        <v>1.904892258869656</v>
       </c>
       <c r="E123">
-        <v>2.752769059430812</v>
+        <v>6.841784162192639</v>
       </c>
       <c r="F123">
-        <v>29.90134236547858</v>
+        <v>13.28107607883966</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.727855221596245</v>
+        <v>14.25303991815979</v>
       </c>
       <c r="C124">
-        <v>6.030680880538339</v>
+        <v>0.8071189311841425</v>
       </c>
       <c r="D124">
-        <v>7.201694713586134</v>
+        <v>1.890685276914464</v>
       </c>
       <c r="E124">
-        <v>2.730596288037521</v>
+        <v>6.840827324746486</v>
       </c>
       <c r="F124">
-        <v>29.81217691648993</v>
+        <v>13.31388422823394</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.718395234927228</v>
+        <v>14.25400288918732</v>
       </c>
       <c r="C125">
-        <v>6.017710334211004</v>
+        <v>0.801076804867666</v>
       </c>
       <c r="D125">
-        <v>7.188897873992554</v>
+        <v>1.876272558610818</v>
       </c>
       <c r="E125">
-        <v>2.708510052566231</v>
+        <v>6.839172615014879</v>
       </c>
       <c r="F125">
-        <v>29.72305459293171</v>
+        <v>13.34612638007438</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.708976064087735</v>
+        <v>14.25403996610604</v>
       </c>
       <c r="C126">
-        <v>6.004712514859741</v>
+        <v>0.7950756955592807</v>
       </c>
       <c r="D126">
-        <v>7.176091389808644</v>
+        <v>1.861668696858997</v>
       </c>
       <c r="E126">
-        <v>2.686511321951054</v>
+        <v>6.83685428260678</v>
       </c>
       <c r="F126">
-        <v>29.63397794416079</v>
+        <v>13.37781693101965</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.699597839566935</v>
+        <v>14.25325403535553</v>
       </c>
       <c r="C127">
-        <v>5.991689017966048</v>
+        <v>0.7891153810848625</v>
       </c>
       <c r="D127">
-        <v>7.16327693306342</v>
+        <v>1.846887594492436</v>
       </c>
       <c r="E127">
-        <v>2.66460104175975</v>
+        <v>6.833905040344163</v>
       </c>
       <c r="F127">
-        <v>29.54494927271485</v>
+        <v>13.40896985024696</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.690260684180839</v>
+        <v>14.25173702265643</v>
       </c>
       <c r="C128">
-        <v>5.978641377067541</v>
+        <v>0.783195639747572</v>
       </c>
       <c r="D128">
-        <v>7.150456044500686</v>
+        <v>1.831942499918477</v>
       </c>
       <c r="E128">
-        <v>2.642780138288743</v>
+        <v>6.830356075950734</v>
       </c>
       <c r="F128">
-        <v>29.45597066424691</v>
+        <v>13.43959869814702</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.680964713194038</v>
+        <v>14.24957087156099</v>
       </c>
       <c r="C129">
-        <v>5.965571078387431</v>
+        <v>0.7773162503786094</v>
       </c>
       <c r="D129">
-        <v>7.137630145885751</v>
+        <v>1.816846041250869</v>
       </c>
       <c r="E129">
-        <v>2.621049520051819</v>
+        <v>6.826237078035484</v>
       </c>
       <c r="F129">
-        <v>29.36704400935018</v>
+        <v>13.46971663461513</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.671710034888302</v>
+        <v>14.24682849234502</v>
       </c>
       <c r="C130">
-        <v>5.952479553290742</v>
+        <v>0.7714769923163231</v>
       </c>
       <c r="D130">
-        <v>7.124800549716316</v>
+        <v>1.801610259100615</v>
       </c>
       <c r="E130">
-        <v>2.59941007601447</v>
+        <v>6.821576272929649</v>
       </c>
       <c r="F130">
-        <v>29.27817102045202</v>
+        <v>13.49933643411207</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.662496750606358</v>
+        <v>14.24357469169806</v>
       </c>
       <c r="C131">
-        <v>5.939368177025464</v>
+        <v>0.7656776454012584</v>
       </c>
       <c r="D131">
-        <v>7.111968470420176</v>
+        <v>1.786246638167976</v>
       </c>
       <c r="E131">
-        <v>2.577862677153608</v>
+        <v>6.816400469056854</v>
       </c>
       <c r="F131">
-        <v>29.18935325304824</v>
+        <v>13.52847049877041</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.653324955067187</v>
+        <v>14.23986698709281</v>
       </c>
       <c r="C132">
-        <v>5.926238284427769</v>
+        <v>0.7599179900138184</v>
       </c>
       <c r="D132">
-        <v>7.099135033416003</v>
+        <v>1.770766137541408</v>
       </c>
       <c r="E132">
-        <v>2.556408175928701</v>
+        <v>6.810735108021172</v>
       </c>
       <c r="F132">
-        <v>29.10059212061001</v>
+        <v>13.55713086537384</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.644194733992641</v>
+        <v>14.2357563743353</v>
       </c>
       <c r="C133">
-        <v>5.913091161689501</v>
+        <v>0.7541978070693998</v>
       </c>
       <c r="D133">
-        <v>7.08630127888833</v>
+        <v>1.755179219533954</v>
       </c>
       <c r="E133">
-        <v>2.535047407539171</v>
+        <v>6.804604319240175</v>
       </c>
       <c r="F133">
-        <v>29.01188890551873</v>
+        <v>13.58532922577231</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.635106169623063</v>
+        <v>14.23128803436575</v>
       </c>
       <c r="C134">
-        <v>5.899928043873564</v>
+        <v>0.7485168780175014</v>
       </c>
       <c r="D134">
-        <v>7.073468181944932</v>
+        <v>1.739495876909611</v>
       </c>
       <c r="E134">
-        <v>2.513781189432622</v>
+        <v>6.798030976744476</v>
       </c>
       <c r="F134">
-        <v>28.92324478661412</v>
+        <v>13.61307692679415</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.626059337210785</v>
+        <v>14.22650198289658</v>
       </c>
       <c r="C135">
-        <v>5.886750131463783</v>
+        <v>0.7428749848543051</v>
       </c>
       <c r="D135">
-        <v>7.060636634004539</v>
+        <v>1.723725657432409</v>
       </c>
       <c r="E135">
-        <v>2.492610323275482</v>
+        <v>6.791036757081544</v>
       </c>
       <c r="F135">
-        <v>28.83466082006035</v>
+        <v>13.64038499394556</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.617054306184591</v>
+        <v>14.221433652251</v>
       </c>
       <c r="C136">
-        <v>5.873558581717742</v>
+        <v>0.7372719101379178</v>
       </c>
       <c r="D136">
-        <v>7.047807481655594</v>
+        <v>1.707877691104529</v>
       </c>
       <c r="E136">
-        <v>2.471535594386586</v>
+        <v>6.783642197301375</v>
       </c>
       <c r="F136">
-        <v>28.74613800385023</v>
+        <v>13.66726412842315</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.60809113740243</v>
+        <v>14.21611440797261</v>
       </c>
       <c r="C137">
-        <v>5.860354506070624</v>
+        <v>0.7317074369850816</v>
       </c>
       <c r="D137">
-        <v>7.034981494239687</v>
+        <v>1.691960709110224</v>
       </c>
       <c r="E137">
-        <v>2.450557766307704</v>
+        <v>6.775866752327216</v>
       </c>
       <c r="F137">
-        <v>28.65767721010751</v>
+        <v>13.6937247300709</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.599169887578949</v>
+        <v>14.21057202002787</v>
       </c>
       <c r="C138">
-        <v>5.847138985396295</v>
+        <v>0.7261813490766218</v>
       </c>
       <c r="D138">
-        <v>7.022159403287946</v>
+        <v>1.675983070294221</v>
       </c>
       <c r="E138">
-        <v>2.429677591691443</v>
+        <v>6.767728851151193</v>
       </c>
       <c r="F138">
-        <v>28.56927927703643</v>
+        <v>13.71977689886183</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.590290608954883</v>
+        <v>14.20483107751036</v>
       </c>
       <c r="C139">
-        <v>5.833913062372101</v>
+        <v>0.7206934306766007</v>
       </c>
       <c r="D139">
-        <v>7.009341878681332</v>
+        <v>1.659952778120449</v>
       </c>
       <c r="E139">
-        <v>2.408895808228666</v>
+        <v>6.75924595142764</v>
       </c>
       <c r="F139">
-        <v>28.48094494665585</v>
+        <v>13.74543044818962</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.581453347755913</v>
+        <v>14.19891335565385</v>
       </c>
       <c r="C140">
-        <v>5.820677739124964</v>
+        <v>0.715243466630208</v>
       </c>
       <c r="D140">
-        <v>6.996529552951375</v>
+        <v>1.643877497139276</v>
       </c>
       <c r="E140">
-        <v>2.388213138440969</v>
+        <v>6.750434592045877</v>
       </c>
       <c r="F140">
-        <v>28.39267490676932</v>
+        <v>13.77069491500128</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.57265814364495</v>
+        <v>14.19283815438559</v>
       </c>
       <c r="C141">
-        <v>5.807433990274909</v>
+        <v>0.7098312423613876</v>
       </c>
       <c r="D141">
-        <v>6.983723011636098</v>
+        <v>1.62776457814038</v>
       </c>
       <c r="E141">
-        <v>2.36763029087225</v>
+        <v>6.741310442462865</v>
       </c>
       <c r="F141">
-        <v>28.30446979139861</v>
+        <v>13.79557956439921</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.563905029960435</v>
+        <v>14.18662257198124</v>
       </c>
       <c r="C142">
-        <v>5.79418275682044</v>
+        <v>0.7044565439011581</v>
       </c>
       <c r="D142">
-        <v>6.970922805722992</v>
+        <v>1.611621065202292</v>
       </c>
       <c r="E142">
-        <v>2.347147941358214</v>
+        <v>6.731888354446651</v>
       </c>
       <c r="F142">
-        <v>28.21633017447496</v>
+        <v>13.82009340606013</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.555194037769405</v>
+        <v>14.18028177123523</v>
       </c>
       <c r="C143">
-        <v>5.780924943698739</v>
+        <v>0.6991191578801527</v>
       </c>
       <c r="D143">
-        <v>6.958129448206925</v>
+        <v>1.595453718995794</v>
       </c>
       <c r="E143">
-        <v>2.326766768951097</v>
+        <v>6.722182404476886</v>
       </c>
       <c r="F143">
-        <v>28.1282565923341</v>
+        <v>13.84424519235721</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.546525192129754</v>
+        <v>14.17382920543069</v>
       </c>
       <c r="C144">
-        <v>5.767661431306561</v>
+        <v>0.6938188715279631</v>
       </c>
       <c r="D144">
-        <v>6.945343421397896</v>
+        <v>1.579269027841997</v>
       </c>
       <c r="E144">
-        <v>2.30648743804717</v>
+        <v>6.712205940691309</v>
       </c>
       <c r="F144">
-        <v>28.04024953262202</v>
+        <v>13.86804343848248</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.5378985130963</v>
+        <v>14.16727681609593</v>
       </c>
       <c r="C145">
-        <v>5.754393070352417</v>
+        <v>0.6885554726928753</v>
       </c>
       <c r="D145">
-        <v>6.932565176704965</v>
+        <v>1.563073221529714</v>
       </c>
       <c r="E145">
-        <v>2.286310597095699</v>
+        <v>6.701971626135298</v>
       </c>
       <c r="F145">
-        <v>27.95230945178966</v>
+        <v>13.89149641781939</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.529314014230988</v>
+        <v>14.16063521557419</v>
       </c>
       <c r="C146">
-        <v>5.741120679200829</v>
+        <v>0.6833287498467767</v>
       </c>
       <c r="D146">
-        <v>6.919795136849928</v>
+        <v>1.546872287872417</v>
       </c>
       <c r="E146">
-        <v>2.266236881580093</v>
+        <v>6.691491468371638</v>
       </c>
       <c r="F146">
-        <v>27.86443676504627</v>
+        <v>13.91461218125238</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.520771706877574</v>
+        <v>14.15391383372029</v>
       </c>
       <c r="C147">
-        <v>5.727845054483644</v>
+        <v>0.6781384920810639</v>
       </c>
       <c r="D147">
-        <v>6.907033700205498</v>
+        <v>1.530671979171107</v>
       </c>
       <c r="E147">
-        <v>2.246266890448967</v>
+        <v>6.680776870708301</v>
       </c>
       <c r="F147">
-        <v>27.77663186480225</v>
+        <v>13.9373985559267</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.512271597082175</v>
+        <v>14.14712105797015</v>
       </c>
       <c r="C148">
-        <v>5.714566966393238</v>
+        <v>0.6729844891140997</v>
       </c>
       <c r="D148">
-        <v>6.894281238322927</v>
+        <v>1.514477828408655</v>
       </c>
       <c r="E148">
-        <v>2.226401230506414</v>
+        <v>6.669838652757901</v>
       </c>
       <c r="F148">
-        <v>27.68889510714553</v>
+        <v>13.95986315631761</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.503813686572933</v>
+        <v>14.14026435467347</v>
       </c>
       <c r="C149">
-        <v>5.701287156544862</v>
+        <v>0.6678665313106417</v>
       </c>
       <c r="D149">
-        <v>6.881538102829931</v>
+        <v>1.498295156704224</v>
       </c>
       <c r="E149">
-        <v>2.206640494609649</v>
+        <v>6.658687092387077</v>
       </c>
       <c r="F149">
-        <v>27.60122682828267</v>
+        <v>13.98201339149564</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.495397971725292</v>
+        <v>14.13335037443987</v>
       </c>
       <c r="C150">
-        <v>5.688006346461454</v>
+        <v>0.6627844096720041</v>
       </c>
       <c r="D150">
-        <v>6.86880462191494</v>
+        <v>1.482129083480662</v>
       </c>
       <c r="E150">
-        <v>2.186985258819067</v>
+        <v>6.647331955360908</v>
       </c>
       <c r="F150">
-        <v>27.51362733802636</v>
+        <v>14.00385646814834</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.487024445850624</v>
+        <v>14.12638504763046</v>
       </c>
       <c r="C151">
-        <v>5.674725234558261</v>
+        <v>0.6577379158304679</v>
       </c>
       <c r="D151">
-        <v>6.856081106347364</v>
+        <v>1.465984538313651</v>
       </c>
       <c r="E151">
-        <v>2.167436086194794</v>
+        <v>6.635782520773753</v>
       </c>
       <c r="F151">
-        <v>27.42609692360152</v>
+        <v>14.0253994029641</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.478693098058023</v>
+        <v>14.11937366501277</v>
       </c>
       <c r="C152">
-        <v>5.661444494050519</v>
+        <v>0.6527268420959242</v>
       </c>
       <c r="D152">
-        <v>6.84336784701452</v>
+        <v>1.449866265877729</v>
       </c>
       <c r="E152">
-        <v>2.147993510731342</v>
+        <v>6.624047616406155</v>
       </c>
       <c r="F152">
-        <v>27.33863585492951</v>
+        <v>14.04664902111124</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.470403913469545</v>
+        <v>14.11232094608783</v>
       </c>
       <c r="C153">
-        <v>5.648164779406421</v>
+        <v>0.647750981431606</v>
       </c>
       <c r="D153">
-        <v>6.830665119499382</v>
+        <v>1.433778837433616</v>
       </c>
       <c r="E153">
-        <v>2.128658067085443</v>
+        <v>6.612135636023467</v>
       </c>
       <c r="F153">
-        <v>27.25124438071137</v>
+        <v>14.06761197097407</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.462156872757413</v>
+        <v>14.10523110298291</v>
       </c>
       <c r="C154">
-        <v>5.634886724877586</v>
+        <v>0.6428101274680211</v>
       </c>
       <c r="D154">
-        <v>6.817973180426971</v>
+        <v>1.417726656623117</v>
       </c>
       <c r="E154">
-        <v>2.109430276726278</v>
+        <v>6.600054568571618</v>
       </c>
       <c r="F154">
-        <v>27.16392273605503</v>
+        <v>14.0882947206044</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.453951952966326</v>
+        <v>14.09810791384205</v>
       </c>
       <c r="C155">
-        <v>5.621610942465151</v>
+        <v>0.6379040744928989</v>
       </c>
       <c r="D155">
-        <v>6.805292275475308</v>
+        <v>1.401713966522942</v>
       </c>
       <c r="E155">
-        <v>2.090310645146237</v>
+        <v>6.587812020988514</v>
       </c>
       <c r="F155">
-        <v>27.07667113851045</v>
+        <v>14.10870357217566</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.445789128019368</v>
+        <v>14.09095475141143</v>
       </c>
       <c r="C156">
-        <v>5.608338026761593</v>
+        <v>0.6330326174260958</v>
       </c>
       <c r="D156">
-        <v>6.792622637623402</v>
+        <v>1.385744858440313</v>
       </c>
       <c r="E156">
-        <v>2.071299664632145</v>
+        <v>6.575415234916995</v>
       </c>
       <c r="F156">
-        <v>26.98948979434399</v>
+        <v>14.12884466053544</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.437668368060056</v>
+        <v>14.08377465506647</v>
       </c>
       <c r="C157">
-        <v>5.595068554599375</v>
+        <v>0.6281955519417373</v>
       </c>
       <c r="D157">
-        <v>6.77996447975176</v>
+        <v>1.369823275171649</v>
       </c>
       <c r="E157">
-        <v>2.052397807987298</v>
+        <v>6.562871113892806</v>
       </c>
       <c r="F157">
-        <v>26.90237889180987</v>
+        <v>14.14872396176312</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.429589639432741</v>
+        <v>14.07657034050328</v>
       </c>
       <c r="C158">
-        <v>5.58180308308834</v>
+        <v>0.623392674373635</v>
       </c>
       <c r="D158">
-        <v>6.767318009357265</v>
+        <v>1.353953019580858</v>
       </c>
       <c r="E158">
-        <v>2.033605540061299</v>
+        <v>6.55018623565841</v>
       </c>
       <c r="F158">
-        <v>26.81533861360557</v>
+        <v>14.16834729808732</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.421552904383075</v>
+        <v>14.0693442462917</v>
       </c>
       <c r="C159">
-        <v>5.568542153262694</v>
+        <v>0.6186237817490488</v>
       </c>
       <c r="D159">
-        <v>6.754683425642103</v>
+        <v>1.338137758552441</v>
       </c>
       <c r="E159">
-        <v>2.014923312783596</v>
+        <v>6.537366873458111</v>
       </c>
       <c r="F159">
-        <v>26.72836913305352</v>
+        <v>14.18772034027532</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.413558123057514</v>
+        <v>14.06209856508372</v>
       </c>
       <c r="C160">
-        <v>5.555286290493994</v>
+        <v>0.6138886717617119</v>
       </c>
       <c r="D160">
-        <v>6.742060910758869</v>
+        <v>1.322381028337705</v>
       </c>
       <c r="E160">
-        <v>1.996351563767643</v>
+        <v>6.524419013327323</v>
       </c>
       <c r="F160">
-        <v>26.64147060956529</v>
+        <v>14.20684861654087</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.405605251933059</v>
+        <v>14.05483525173679</v>
       </c>
       <c r="C161">
-        <v>5.542036002599528</v>
+        <v>0.609187142744921</v>
       </c>
       <c r="D161">
-        <v>6.729450635283214</v>
+        <v>1.306686240394044</v>
       </c>
       <c r="E161">
-        <v>1.977890717528599</v>
+        <v>6.511348365810561</v>
       </c>
       <c r="F161">
-        <v>26.55464318738722</v>
+        <v>14.22573751153102</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.397694244315801</v>
+        <v>14.04755607864645</v>
       </c>
       <c r="C162">
-        <v>5.528791782593317</v>
+        <v>0.6045189938481601</v>
       </c>
       <c r="D162">
-        <v>6.716852770135688</v>
+        <v>1.291056683235834</v>
       </c>
       <c r="E162">
-        <v>1.959541182976891</v>
+        <v>6.498160386052748</v>
       </c>
       <c r="F162">
-        <v>26.46788701968972</v>
+        <v>14.24439227693795</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.389825049203398</v>
+        <v>14.04026262548623</v>
       </c>
       <c r="C163">
-        <v>5.515554109628992</v>
+        <v>0.599884024884997</v>
       </c>
       <c r="D163">
-        <v>6.704267473012525</v>
+        <v>1.275495532957649</v>
       </c>
       <c r="E163">
-        <v>1.941303358043112</v>
+        <v>6.484860282684209</v>
       </c>
       <c r="F163">
-        <v>26.38120225078391</v>
+        <v>14.26281802901869</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.381997614052351</v>
+        <v>14.03295632950076</v>
       </c>
       <c r="C164">
-        <v>5.502323447199776</v>
+        <v>0.5952820363830579</v>
       </c>
       <c r="D164">
-        <v>6.691694885840199</v>
+        <v>1.26000584782458</v>
       </c>
       <c r="E164">
-        <v>1.923177627887289</v>
+        <v>6.471453033276819</v>
       </c>
       <c r="F164">
-        <v>26.2945889951133</v>
+        <v>14.28101975906191</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.374211882867972</v>
+        <v>14.02563847437852</v>
       </c>
       <c r="C165">
-        <v>5.489100245177496</v>
+        <v>0.5907128295521495</v>
       </c>
       <c r="D165">
-        <v>6.679135153440488</v>
+        <v>1.244590581930291</v>
       </c>
       <c r="E165">
-        <v>1.905164364228769</v>
+        <v>6.457943397267593</v>
       </c>
       <c r="F165">
-        <v>26.20804738221673</v>
+        <v>14.29900233020645</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.366467796799569</v>
+        <v>14.0183102336167</v>
       </c>
       <c r="C166">
-        <v>5.475884941118442</v>
+        <v>0.5861762062759746</v>
       </c>
       <c r="D166">
-        <v>6.666588410443054</v>
+        <v>1.229252586755524</v>
       </c>
       <c r="E166">
-        <v>1.887263925913728</v>
+        <v>6.444335924438575</v>
       </c>
       <c r="F166">
-        <v>26.12157753757007</v>
+        <v>14.31677048735656</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.358765293551712</v>
+        <v>14.01097265347513</v>
       </c>
       <c r="C167">
-        <v>5.462677958591418</v>
+        <v>0.5816719692591644</v>
       </c>
       <c r="D167">
-        <v>6.65405477931692</v>
+        <v>1.213994601687964</v>
       </c>
       <c r="E167">
-        <v>1.869476655563136</v>
+        <v>6.430634967950851</v>
       </c>
       <c r="F167">
-        <v>26.03517957646146</v>
+        <v>14.33432886208936</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.351104308546044</v>
+        <v>14.00362669247519</v>
       </c>
       <c r="C168">
-        <v>5.449479708646002</v>
+        <v>0.5771999218927082</v>
       </c>
       <c r="D168">
-        <v>6.641534381866267</v>
+        <v>1.198819280842933</v>
       </c>
       <c r="E168">
-        <v>1.851802885502301</v>
+        <v>6.41684469238773</v>
       </c>
       <c r="F168">
-        <v>25.94885359419742</v>
+        <v>14.35168196975082</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.343484774599645</v>
+        <v>13.9962732064579</v>
       </c>
       <c r="C169">
-        <v>5.436290591337087</v>
+        <v>0.5727598682989767</v>
       </c>
       <c r="D169">
-        <v>6.629027332357833</v>
+        <v>1.183729173003218</v>
       </c>
       <c r="E169">
-        <v>1.834242935602925</v>
+        <v>6.402969093023729</v>
       </c>
       <c r="F169">
-        <v>25.86259970319899</v>
+        <v>14.36883420788104</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.335906621812061</v>
+        <v>13.98891297727301</v>
       </c>
       <c r="C170">
-        <v>5.423110994206425</v>
+        <v>0.5683516133048119</v>
       </c>
       <c r="D170">
-        <v>6.616533737981761</v>
+        <v>1.168726736195983</v>
       </c>
       <c r="E170">
-        <v>1.816797112157375</v>
+        <v>6.389011979878292</v>
       </c>
       <c r="F170">
-        <v>25.77641800545129</v>
+        <v>14.38578988404922</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.328369777484679</v>
+        <v>13.98154670794078</v>
       </c>
       <c r="C171">
-        <v>5.409941293307782</v>
+        <v>0.5639749624496162</v>
       </c>
       <c r="D171">
-        <v>6.604053701589881</v>
+        <v>1.153814341439742</v>
       </c>
       <c r="E171">
-        <v>1.79946570862701</v>
+        <v>6.374977025683043</v>
       </c>
       <c r="F171">
-        <v>25.69030859374442</v>
+        <v>14.40255320150273</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.32087416633536</v>
+        <v>13.97417503790216</v>
       </c>
       <c r="C172">
-        <v>5.396781854840288</v>
+        <v>0.5596297220774734</v>
       </c>
       <c r="D172">
-        <v>6.591587321652412</v>
+        <v>1.138994265060175</v>
       </c>
       <c r="E172">
-        <v>1.782249001774871</v>
+        <v>6.360867741487202</v>
       </c>
       <c r="F172">
-        <v>25.60427155935761</v>
+        <v>14.41912823800789</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.313419711010882</v>
+        <v>13.96679854715243</v>
       </c>
       <c r="C173">
-        <v>5.38363303378153</v>
+        <v>0.5553156992481058</v>
       </c>
       <c r="D173">
-        <v>6.579134690906207</v>
+        <v>1.124268703857533</v>
       </c>
       <c r="E173">
-        <v>1.765147258268752</v>
+        <v>6.346687485940103</v>
       </c>
       <c r="F173">
-        <v>25.51830699363011</v>
+        <v>14.43551900234967</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.306006331641482</v>
+        <v>13.95941776093458</v>
       </c>
       <c r="C174">
-        <v>5.370495174576001</v>
+        <v>0.5510327017687114</v>
       </c>
       <c r="D174">
-        <v>6.566695897185709</v>
+        <v>1.109639767804263</v>
       </c>
       <c r="E174">
-        <v>1.74816073247519</v>
+        <v>6.332439503509024</v>
       </c>
       <c r="F174">
-        <v>25.43241498355725</v>
+        <v>14.45172940433483</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.298633945947939</v>
+        <v>13.95203315970842</v>
       </c>
       <c r="C175">
-        <v>5.357368612811089</v>
+        <v>0.5467805381688211</v>
       </c>
       <c r="D175">
-        <v>6.554271025922747</v>
+        <v>1.095109485974177</v>
       </c>
       <c r="E175">
-        <v>1.731289664907754</v>
+        <v>6.318126878552371</v>
       </c>
       <c r="F175">
-        <v>25.3465956116891</v>
+        <v>14.46776325258788</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.291302468946676</v>
+        <v>13.94464517635136</v>
       </c>
       <c r="C176">
-        <v>5.344253673983636</v>
+        <v>0.5425590177185736</v>
       </c>
       <c r="D176">
-        <v>6.541860157817228</v>
+        <v>1.080679809916492</v>
       </c>
       <c r="E176">
-        <v>1.714534283104413</v>
+        <v>6.303752595514817</v>
       </c>
       <c r="F176">
-        <v>25.26084896088527</v>
+        <v>14.48362426367369</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.284011814081891</v>
+        <v>13.93725420940696</v>
       </c>
       <c r="C177">
-        <v>5.331150673933439</v>
+        <v>0.5383679504901984</v>
       </c>
       <c r="D177">
-        <v>6.529463367681399</v>
+        <v>1.066352610132671</v>
       </c>
       <c r="E177">
-        <v>1.697894799200383</v>
+        <v>6.289319511856242</v>
       </c>
       <c r="F177">
-        <v>25.17517511155095</v>
+        <v>14.49931608188361</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.27676189242435</v>
+        <v>13.92986061737419</v>
       </c>
       <c r="C178">
-        <v>5.318059920519078</v>
+        <v>0.534207147293422</v>
       </c>
       <c r="D178">
-        <v>6.517080729701419</v>
+        <v>1.052129685355956</v>
       </c>
       <c r="E178">
-        <v>1.681371413951729</v>
+        <v>6.274830366195257</v>
       </c>
       <c r="F178">
-        <v>25.08957414134114</v>
+        <v>14.51484226236423</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.26955261296552</v>
+        <v>13.9224647297253</v>
       </c>
       <c r="C179">
-        <v>5.304981712504041</v>
+        <v>0.5300764197001295</v>
       </c>
       <c r="D179">
-        <v>6.504712314049299</v>
+        <v>1.038012757528324</v>
       </c>
       <c r="E179">
-        <v>1.664964315537529</v>
+        <v>6.26028780109274</v>
       </c>
       <c r="F179">
-        <v>25.00404612597078</v>
+        <v>14.53020626642859</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.262383882034266</v>
+        <v>13.91506684175552</v>
       </c>
       <c r="C180">
-        <v>5.291916339799303</v>
+        <v>0.5259755800152776</v>
       </c>
       <c r="D180">
-        <v>6.492358185194052</v>
+        <v>1.024003475755447</v>
       </c>
       <c r="E180">
-        <v>1.648673678431116</v>
+        <v>6.245694346604784</v>
       </c>
       <c r="F180">
-        <v>24.91859114183069</v>
+        <v>14.54541149128479</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.255255604631409</v>
+        <v>13.907667230086</v>
       </c>
       <c r="C181">
-        <v>5.278864085099914</v>
+        <v>0.5219044413064128</v>
       </c>
       <c r="D181">
-        <v>6.480018407187175</v>
+        <v>1.010103420276077</v>
       </c>
       <c r="E181">
-        <v>1.632499663974116</v>
+        <v>6.231052443655854</v>
       </c>
       <c r="F181">
-        <v>24.83320926385932</v>
+        <v>14.56046125352633</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.248167683613004</v>
+        <v>13.900266143667</v>
       </c>
       <c r="C182">
-        <v>5.265825222886935</v>
+        <v>0.5178628174501654</v>
       </c>
       <c r="D182">
-        <v>6.467693040507014</v>
+        <v>0.9963140974860365</v>
       </c>
       <c r="E182">
-        <v>1.616442419763512</v>
+        <v>6.216364438340505</v>
       </c>
       <c r="F182">
-        <v>24.74790056158951</v>
+        <v>14.57535878917724</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.241120019927318</v>
+        <v>13.89286380407751</v>
       </c>
       <c r="C183">
-        <v>5.252800019529779</v>
+        <v>0.5138505230754116</v>
       </c>
       <c r="D183">
-        <v>6.455382142033005</v>
+        <v>0.9826369487197725</v>
       </c>
       <c r="E183">
-        <v>1.600502080630194</v>
+        <v>6.201632584642367</v>
       </c>
       <c r="F183">
-        <v>24.66266510812013</v>
+        <v>14.59010726505391</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.234112512345612</v>
+        <v>13.88546043054711</v>
       </c>
       <c r="C184">
-        <v>5.239788734850516</v>
+        <v>0.5098673735857788</v>
       </c>
       <c r="D184">
-        <v>6.443085766394153</v>
+        <v>0.9690733462047402</v>
       </c>
       <c r="E184">
-        <v>1.584678768383372</v>
+        <v>6.186859060394306</v>
       </c>
       <c r="F184">
-        <v>24.5775029748668</v>
+        <v>14.60470978048703</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.227145057961819</v>
+        <v>13.87805621040215</v>
       </c>
       <c r="C185">
-        <v>5.226791621064867</v>
+        <v>0.5059131851207997</v>
       </c>
       <c r="D185">
-        <v>6.430803966109059</v>
+        <v>0.955624595520459</v>
       </c>
       <c r="E185">
-        <v>1.568972591484302</v>
+        <v>6.172045953621645</v>
       </c>
       <c r="F185">
-        <v>24.49241423156962</v>
+        <v>14.61916936361771</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.220217552256804</v>
+        <v>13.87065131409677</v>
       </c>
       <c r="C186">
-        <v>5.213808922578441</v>
+        <v>0.5019877746029879</v>
       </c>
       <c r="D186">
-        <v>6.418536790916904</v>
+        <v>0.9422919387257097</v>
       </c>
       <c r="E186">
-        <v>1.553383645194275</v>
+        <v>6.157195282675143</v>
       </c>
       <c r="F186">
-        <v>24.40739894538857</v>
+        <v>14.6334889709138</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.213329888896576</v>
+        <v>13.86324591353422</v>
       </c>
       <c r="C187">
-        <v>5.200840878609556</v>
+        <v>0.4980909597733366</v>
       </c>
       <c r="D187">
-        <v>6.406284288071101</v>
+        <v>0.929076551841259</v>
       </c>
       <c r="E187">
-        <v>1.53791201189759</v>
+        <v>6.142308991367964</v>
       </c>
       <c r="F187">
-        <v>24.32245718587125</v>
+        <v>14.64767150268452</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.206481959736864</v>
+        <v>13.85584014855996</v>
       </c>
       <c r="C188">
-        <v>5.187887721682142</v>
+        <v>0.4942225591342851</v>
       </c>
       <c r="D188">
-        <v>6.394046503262511</v>
+        <v>0.9159795497685408</v>
       </c>
       <c r="E188">
-        <v>1.522557760582039</v>
+        <v>6.127388948232529</v>
       </c>
       <c r="F188">
-        <v>24.2375890210942</v>
+        <v>14.66171979483409</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.199673654837448</v>
+        <v>13.84843415425235</v>
       </c>
       <c r="C189">
-        <v>5.174949678369074</v>
+        <v>0.4903823919727229</v>
       </c>
       <c r="D189">
-        <v>6.381823479940079</v>
+        <v>0.9030019846380301</v>
       </c>
       <c r="E189">
-        <v>1.507320946942159</v>
+        <v>6.112436961910392</v>
       </c>
       <c r="F189">
-        <v>24.15279451762041</v>
+        <v>14.67563661280481</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.19290486297436</v>
+        <v>13.84102805990734</v>
       </c>
       <c r="C190">
-        <v>5.162026966274252</v>
+        <v>0.4865702783153334</v>
       </c>
       <c r="D190">
-        <v>6.369615259029461</v>
+        <v>0.890144847193269</v>
       </c>
       <c r="E190">
-        <v>1.492201613569486</v>
+        <v>6.097454770656777</v>
       </c>
       <c r="F190">
-        <v>24.06807374230949</v>
+        <v>14.68942467197996</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.186175471244789</v>
+        <v>13.83362197295421</v>
       </c>
       <c r="C191">
-        <v>5.149119799164249</v>
+        <v>0.4827860389907456</v>
       </c>
       <c r="D191">
-        <v>6.357421880418754</v>
+        <v>0.8774090693052263</v>
       </c>
       <c r="E191">
-        <v>1.477199789861142</v>
+        <v>6.082444054723165</v>
       </c>
       <c r="F191">
-        <v>23.98342676196967</v>
+        <v>14.70308662885066</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.179485365204614</v>
+        <v>13.8262159998154</v>
       </c>
       <c r="C192">
-        <v>5.136228386412308</v>
+        <v>0.4790294956470108</v>
       </c>
       <c r="D192">
-        <v>6.345243382109252</v>
+        <v>0.8647955220176136</v>
       </c>
       <c r="E192">
-        <v>1.462315492399347</v>
+        <v>6.067406435812972</v>
       </c>
       <c r="F192">
-        <v>23.8988536429875</v>
+        <v>14.71662507988767</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.172834428625914</v>
+        <v>13.81881023706283</v>
       </c>
       <c r="C193">
-        <v>5.123352931410359</v>
+        <v>0.4753004707030321</v>
       </c>
       <c r="D193">
-        <v>6.333079799611952</v>
+        <v>0.8523050195093295</v>
       </c>
       <c r="E193">
-        <v>1.447548724365959</v>
+        <v>6.052343476178214</v>
       </c>
       <c r="F193">
-        <v>23.81435445127374</v>
+        <v>14.73004256477516</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.166222544229169</v>
+        <v>13.81140477041358</v>
       </c>
       <c r="C194">
-        <v>5.110493631899627</v>
+        <v>0.471598787369341</v>
       </c>
       <c r="D194">
-        <v>6.320931167685697</v>
+        <v>0.8399383179087342</v>
       </c>
       <c r="E194">
-        <v>1.432899475632901</v>
+        <v>6.03725668867888</v>
       </c>
       <c r="F194">
-        <v>23.72992925316355</v>
+        <v>14.74334157592685</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.159649593199916</v>
+        <v>13.80399968227163</v>
       </c>
       <c r="C195">
-        <v>5.097650674805739</v>
+        <v>0.4679242696067433</v>
       </c>
       <c r="D195">
-        <v>6.308797519428954</v>
+        <v>0.8276961162478113</v>
       </c>
       <c r="E195">
-        <v>1.41836772301296</v>
+        <v>6.022147530904803</v>
       </c>
       <c r="F195">
-        <v>23.64557811491235</v>
+        <v>14.75652455181149</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.153115455369327</v>
+        <v>13.79659504787168</v>
       </c>
       <c r="C196">
-        <v>5.084824249936479</v>
+        <v>0.4642767421910365</v>
       </c>
       <c r="D196">
-        <v>6.296678886073689</v>
+        <v>0.8155790585700261</v>
       </c>
       <c r="E196">
-        <v>1.403953430150486</v>
+        <v>6.007017413009495</v>
       </c>
       <c r="F196">
-        <v>23.56130110254625</v>
+        <v>14.76959387394581</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.14662000896149</v>
+        <v>13.78919093442286</v>
       </c>
       <c r="C197">
-        <v>5.072014539607212</v>
+        <v>0.4606560307118296</v>
       </c>
       <c r="D197">
-        <v>6.284575297576887</v>
+        <v>0.8035877328994079</v>
       </c>
       <c r="E197">
-        <v>1.389656548227154</v>
+        <v>5.991867698557474</v>
       </c>
       <c r="F197">
-        <v>23.47709828226231</v>
+        <v>14.78255188227289</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.140163131160042</v>
+        <v>13.78178740765314</v>
       </c>
       <c r="C198">
-        <v>5.059221721639045</v>
+        <v>0.4570619615406046</v>
       </c>
       <c r="D198">
-        <v>6.27248678281903</v>
+        <v>0.7917226736769476</v>
       </c>
       <c r="E198">
-        <v>1.375477014917613</v>
+        <v>5.976699702549986</v>
       </c>
       <c r="F198">
-        <v>23.39296972079693</v>
+        <v>14.79540086702864</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.133744697871536</v>
+        <v>13.77438452681335</v>
       </c>
       <c r="C199">
-        <v>5.046445966634939</v>
+        <v>0.4534943618461993</v>
       </c>
       <c r="D199">
-        <v>6.260413369178913</v>
+        <v>0.7799843615925235</v>
       </c>
       <c r="E199">
-        <v>1.361414754498181</v>
+        <v>5.961514700425171</v>
       </c>
       <c r="F199">
-        <v>23.30891548504949</v>
+        <v>14.80814306838138</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.127364583757245</v>
+        <v>13.76698234460353</v>
       </c>
       <c r="C200">
-        <v>5.03368744066908</v>
+        <v>0.4499530595553335</v>
       </c>
       <c r="D200">
-        <v>6.248355082628789</v>
+        <v>0.7683732243439535</v>
       </c>
       <c r="E200">
-        <v>1.347469678364478</v>
+        <v>5.946313922902474</v>
       </c>
       <c r="F200">
-        <v>23.22493564126246</v>
+        <v>14.82078068251218</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.121022661980729</v>
+        <v>13.75958091363526</v>
       </c>
       <c r="C201">
-        <v>5.020946308612066</v>
+        <v>0.4464378834200227</v>
       </c>
       <c r="D201">
-        <v>6.236311948314095</v>
+        <v>0.7568896380079383</v>
       </c>
       <c r="E201">
-        <v>1.333641684823062</v>
+        <v>5.931098561616889</v>
       </c>
       <c r="F201">
-        <v>23.14103025706342</v>
+        <v>14.83331586352433</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.114718804621699</v>
+        <v>13.75218028022018</v>
       </c>
       <c r="C202">
-        <v>5.008222729679918</v>
+        <v>0.4429486630022787</v>
       </c>
       <c r="D202">
-        <v>6.224283990145659</v>
+        <v>0.7455339267625064</v>
       </c>
       <c r="E202">
-        <v>1.319930660321349</v>
+        <v>5.915869770729914</v>
       </c>
       <c r="F202">
-        <v>23.05719940014876</v>
+        <v>14.84575072081356</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.108452882948338</v>
+        <v>13.74478048657383</v>
       </c>
       <c r="C203">
-        <v>4.995516859086568</v>
+        <v>0.4394852286542061</v>
       </c>
       <c r="D203">
-        <v>6.212271230705229</v>
+        <v>0.7343063648311337</v>
       </c>
       <c r="E203">
-        <v>1.30633647769558</v>
+        <v>5.900628664893563</v>
       </c>
       <c r="F203">
-        <v>22.97344313837493</v>
+        <v>14.85808731840118</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.102224767010848</v>
+        <v>13.73738157395022</v>
       </c>
       <c r="C204">
-        <v>4.982828844821677</v>
+        <v>0.4360474115296328</v>
       </c>
       <c r="D204">
-        <v>6.200273691876244</v>
+        <v>0.7232071767464908</v>
       </c>
       <c r="E204">
-        <v>1.29285899625015</v>
+        <v>5.885376326093658</v>
       </c>
       <c r="F204">
-        <v>22.88976153975551</v>
+        <v>14.87032768449152</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.096034325836047</v>
+        <v>13.72998357877485</v>
       </c>
       <c r="C205">
-        <v>4.970158834734931</v>
+        <v>0.4326350435350848</v>
       </c>
       <c r="D205">
-        <v>6.188291394499511</v>
+        <v>0.7122365382052784</v>
       </c>
       <c r="E205">
-        <v>1.279498062749909</v>
+        <v>5.870113800360653</v>
       </c>
       <c r="F205">
-        <v>22.8061546732914</v>
+        <v>14.88247380637513</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.089881427469332</v>
+        <v>13.72258653520002</v>
       </c>
       <c r="C206">
-        <v>4.957506971723582</v>
+        <v>0.4292479574183047</v>
       </c>
       <c r="D206">
-        <v>6.176324358215518</v>
+        <v>0.7013945751722648</v>
       </c>
       <c r="E206">
-        <v>1.266253511042044</v>
+        <v>5.854842101344692</v>
       </c>
       <c r="F206">
-        <v>22.72262260829614</v>
+        <v>14.89452762801375</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.083765939012076</v>
+        <v>13.71519047549829</v>
       </c>
       <c r="C207">
-        <v>4.944873394974596</v>
+        <v>0.4258859867339773</v>
       </c>
       <c r="D207">
-        <v>6.164372602017051</v>
+        <v>0.690681367933034</v>
       </c>
       <c r="E207">
-        <v>1.253125163761067</v>
+        <v>5.839562212183586</v>
       </c>
       <c r="F207">
-        <v>22.63916541430412</v>
+        <v>14.90649105969011</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.07768772465108</v>
+        <v>13.70779542870866</v>
       </c>
       <c r="C208">
-        <v>4.932258239576785</v>
+        <v>0.4225489658300103</v>
       </c>
       <c r="D208">
-        <v>6.152436144023395</v>
+        <v>0.6800969496719873</v>
       </c>
       <c r="E208">
-        <v>1.24011282999664</v>
+        <v>5.824275083691494</v>
       </c>
       <c r="F208">
-        <v>22.5557831616473</v>
+        <v>14.91836597467904</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.07164665044357</v>
+        <v>13.70040142247677</v>
       </c>
       <c r="C209">
-        <v>4.919661636450499</v>
+        <v>0.4192367298580804</v>
       </c>
       <c r="D209">
-        <v>6.14051500136977</v>
+        <v>0.669641307719873</v>
       </c>
       <c r="E209">
-        <v>1.227216305246345</v>
+        <v>5.808981639734498</v>
       </c>
       <c r="F209">
-        <v>22.47247592122456</v>
+        <v>14.93015420848197</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.065642580531004</v>
+        <v>13.69300848259495</v>
       </c>
       <c r="C210">
-        <v>4.907083714581009</v>
+        <v>0.4159491147216421</v>
       </c>
       <c r="D210">
-        <v>6.128609190417627</v>
+        <v>0.6593143825427813</v>
       </c>
       <c r="E210">
-        <v>1.214435372919997</v>
+        <v>5.793682774807794</v>
       </c>
       <c r="F210">
-        <v>22.38924376445971</v>
+        <v>14.94185756018265</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.059675378225835</v>
+        <v>13.68561663224432</v>
       </c>
       <c r="C211">
-        <v>4.894524599114553</v>
+        <v>0.4126859571747906</v>
       </c>
       <c r="D211">
-        <v>6.116718726896603</v>
+        <v>0.6491160721332548</v>
       </c>
       <c r="E211">
-        <v>1.201769803793868</v>
+        <v>5.778379356484618</v>
       </c>
       <c r="F211">
-        <v>22.30608676324261</v>
+        <v>14.95347779794892</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.05374490605061</v>
+        <v>13.67822589399645</v>
       </c>
       <c r="C212">
-        <v>4.881984412060789</v>
+        <v>0.4094470947720592</v>
       </c>
       <c r="D212">
-        <v>6.104843625703887</v>
+        <v>0.6390462301849156</v>
       </c>
       <c r="E212">
-        <v>1.189219357940998</v>
+        <v>5.763072227164993</v>
       </c>
       <c r="F212">
-        <v>22.22300499043292</v>
+        <v>14.96501665562486</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.047851025777065</v>
+        <v>13.67083628869775</v>
       </c>
       <c r="C213">
-        <v>4.869463270903049</v>
+        <v>0.4062323658640641</v>
       </c>
       <c r="D213">
-        <v>6.092983900917611</v>
+        <v>0.6291046675097445</v>
       </c>
       <c r="E213">
-        <v>1.176783782211177</v>
+        <v>5.747762201141736</v>
       </c>
       <c r="F213">
-        <v>22.13999851951429</v>
+        <v>14.97647583081188</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.041993597320267</v>
+        <v>13.66344783498953</v>
       </c>
       <c r="C214">
-        <v>4.856961291302064</v>
+        <v>0.4030416096054026</v>
       </c>
       <c r="D214">
-        <v>6.081139566125994</v>
+        <v>0.6192911530294184</v>
       </c>
       <c r="E214">
-        <v>1.164462809997961</v>
+        <v>5.732450072322111</v>
       </c>
       <c r="F214">
-        <v>22.05706742473502</v>
+        <v>14.98785699367698</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.036172479342802</v>
+        <v>13.65606055130002</v>
       </c>
       <c r="C215">
-        <v>4.844478586072684</v>
+        <v>0.3998746659032176</v>
       </c>
       <c r="D215">
-        <v>6.069310634206772</v>
+        <v>0.6096054140698814</v>
       </c>
       <c r="E215">
-        <v>1.152256163091955</v>
+        <v>5.717136611496205</v>
       </c>
       <c r="F215">
-        <v>21.97421178114693</v>
+        <v>14.99916178241698</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.030387532172999</v>
+        <v>13.64867445445094</v>
       </c>
       <c r="C216">
-        <v>4.832015264974397</v>
+        <v>0.3967313755194324</v>
       </c>
       <c r="D216">
-        <v>6.057497117259321</v>
+        <v>0.6000471374712791</v>
       </c>
       <c r="E216">
-        <v>1.140163551042205</v>
+        <v>5.701822565597326</v>
       </c>
       <c r="F216">
-        <v>21.89143166365411</v>
+        <v>15.01039180315274</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.024638614314094</v>
+        <v>13.64128955968568</v>
       </c>
       <c r="C217">
-        <v>4.819571434694767</v>
+        <v>0.3936115800091166</v>
       </c>
       <c r="D217">
-        <v>6.045699026957409</v>
+        <v>0.5906159704505052</v>
       </c>
       <c r="E217">
-        <v>1.128184673332978</v>
+        <v>5.68650865489338</v>
       </c>
       <c r="F217">
-        <v>21.80872714898371</v>
+        <v>15.02154863303132</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.018925583615683</v>
+        <v>13.63390588193308</v>
       </c>
       <c r="C218">
-        <v>4.807147197749678</v>
+        <v>0.3905151217250298</v>
       </c>
       <c r="D218">
-        <v>6.033916374355144</v>
+        <v>0.5813115234726098</v>
       </c>
       <c r="E218">
-        <v>1.116319216677628</v>
+        <v>5.67119558871167</v>
       </c>
       <c r="F218">
-        <v>21.72609831461447</v>
+        <v>15.03263382189907</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.013248297306691</v>
+        <v>13.62652343480114</v>
       </c>
       <c r="C219">
-        <v>4.794742656137708</v>
+        <v>0.3874418438226421</v>
       </c>
       <c r="D219">
-        <v>6.022149169725582</v>
+        <v>0.5721333664692669</v>
       </c>
       <c r="E219">
-        <v>1.104566854546009</v>
+        <v>5.655884054677073</v>
       </c>
       <c r="F219">
-        <v>21.64354523880505</v>
+        <v>15.04364889060652</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.007606612028329</v>
+        <v>13.61914223090116</v>
       </c>
       <c r="C220">
-        <v>4.782357908499526</v>
+        <v>0.384391590209254</v>
       </c>
       <c r="D220">
-        <v>6.010397423022431</v>
+        <v>0.5630810330143634</v>
       </c>
       <c r="E220">
-        <v>1.09292724942831</v>
+        <v>5.640574715811518</v>
       </c>
       <c r="F220">
-        <v>21.56106800074987</v>
+        <v>15.05459533044901</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.002000381698734</v>
+        <v>13.61176228234167</v>
       </c>
       <c r="C221">
-        <v>4.76999305099681</v>
+        <v>0.3813642056489384</v>
       </c>
       <c r="D221">
-        <v>5.998661143691824</v>
+        <v>0.5541540206177961</v>
       </c>
       <c r="E221">
-        <v>1.081400052088708</v>
+        <v>5.62526821398759</v>
       </c>
       <c r="F221">
-        <v>21.47866667997436</v>
+        <v>15.06547460895702</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.996429462112415</v>
+        <v>13.60438360023455</v>
       </c>
       <c r="C222">
-        <v>4.757648176349226</v>
+        <v>0.3783595356911336</v>
       </c>
       <c r="D222">
-        <v>5.98694034070205</v>
+        <v>0.5453517940710083</v>
       </c>
       <c r="E222">
-        <v>1.069984903627852</v>
+        <v>5.609965183432092</v>
       </c>
       <c r="F222">
-        <v>21.39634135641861</v>
+        <v>15.07628816686981</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9908937081446505</v>
+        <v>13.59700619504892</v>
       </c>
       <c r="C223">
-        <v>4.745323375186722</v>
+        <v>0.3753774266828495</v>
       </c>
       <c r="D223">
-        <v>5.975235022595035</v>
+        <v>0.536673780429327</v>
       </c>
       <c r="E223">
-        <v>1.058681433073304</v>
+        <v>5.594666238223682</v>
       </c>
       <c r="F223">
-        <v>21.31409211245396</v>
+        <v>15.08703741710363</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.985392973832405</v>
+        <v>13.58963007674573</v>
       </c>
       <c r="C224">
-        <v>4.733018736472336</v>
+        <v>0.3724177257711755</v>
       </c>
       <c r="D224">
-        <v>5.963545196701472</v>
+        <v>0.5281193742520103</v>
       </c>
       <c r="E224">
-        <v>1.047489256740701</v>
+        <v>5.579371968341638</v>
       </c>
       <c r="F224">
-        <v>21.23191903078961</v>
+        <v>15.09772374961187</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.9799271127045082</v>
+        <v>13.5822552544409</v>
       </c>
       <c r="C225">
-        <v>4.720734346509627</v>
+        <v>0.369480280851123</v>
       </c>
       <c r="D225">
-        <v>5.951870870810541</v>
+        <v>0.5196879377320175</v>
       </c>
       <c r="E225">
-        <v>1.036407980546928</v>
+        <v>5.564082950637316</v>
       </c>
       <c r="F225">
-        <v>21.14982219514445</v>
+        <v>15.10834853018019</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.9744959778092895</v>
+        <v>13.57488173688354</v>
       </c>
       <c r="C226">
-        <v>4.708470289353766</v>
+        <v>0.3665649406766271</v>
       </c>
       <c r="D226">
-        <v>5.940212052117245</v>
+        <v>0.5113788035552636</v>
       </c>
       <c r="E226">
-        <v>1.025437199291292</v>
+        <v>5.548799750800718</v>
       </c>
       <c r="F226">
-        <v>21.06780169027483</v>
+        <v>15.11891309987238</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9690994214190902</v>
+        <v>13.56750953235177</v>
       </c>
       <c r="C227">
-        <v>4.696226645682702</v>
+        <v>0.3636715547778459</v>
       </c>
       <c r="D227">
-        <v>5.928568747413094</v>
+        <v>0.5031912708117314</v>
       </c>
       <c r="E227">
-        <v>1.014576498732149</v>
+        <v>5.533522917638562</v>
       </c>
       <c r="F227">
-        <v>20.98585760054724</v>
+        <v>15.12941877561042</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9637372945691424</v>
+        <v>13.56013864835735</v>
       </c>
       <c r="C228">
-        <v>4.684003495526449</v>
+        <v>0.3607999734806835</v>
       </c>
       <c r="D228">
-        <v>5.916940963160007</v>
+        <v>0.4951246096833192</v>
       </c>
       <c r="E228">
-        <v>1.003825453309313</v>
+        <v>5.518252979534536</v>
       </c>
       <c r="F228">
-        <v>20.90399001311867</v>
+        <v>15.13986685356196</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.9584094494344256</v>
+        <v>13.55276909226207</v>
       </c>
       <c r="C229">
-        <v>4.671800916315615</v>
+        <v>0.3579500479059631</v>
       </c>
       <c r="D229">
-        <v>5.905328704229387</v>
+        <v>0.4871780617619663</v>
       </c>
       <c r="E229">
-        <v>0.9931836252981526</v>
+        <v>5.502990455919743</v>
       </c>
       <c r="F229">
-        <v>20.82219901564945</v>
+        <v>15.15025860722846</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.9531157371096564</v>
+        <v>13.545400870941</v>
       </c>
       <c r="C230">
-        <v>4.659618983468545</v>
+        <v>0.35512162992124</v>
       </c>
       <c r="D230">
-        <v>5.893731976632806</v>
+        <v>0.479350842354148</v>
       </c>
       <c r="E230">
-        <v>0.9826505673121113</v>
+        <v>5.487735852445054</v>
       </c>
       <c r="F230">
-        <v>20.74048469682287</v>
+        <v>15.1605952862467</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.9478560083000303</v>
+        <v>13.53803399070025</v>
       </c>
       <c r="C231">
-        <v>4.647457770074458</v>
+        <v>0.3523145722472468</v>
       </c>
       <c r="D231">
-        <v>5.882150785597972</v>
+        <v>0.47164213756925</v>
       </c>
       <c r="E231">
-        <v>0.9722258215605339</v>
+        <v>5.472489661170266</v>
       </c>
       <c r="F231">
-        <v>20.65884714641387</v>
+        <v>15.17087812158909</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.9426301133457978</v>
+        <v>13.53066845769902</v>
       </c>
       <c r="C232">
-        <v>4.635317347085939</v>
+        <v>0.3495287283750743</v>
       </c>
       <c r="D232">
-        <v>5.870585136010511</v>
+        <v>0.4640511082312836</v>
       </c>
       <c r="E232">
-        <v>0.9619089219316047</v>
+        <v>5.457252357590938</v>
       </c>
       <c r="F232">
-        <v>20.57728645506438</v>
+        <v>15.1811083229547</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.937437902246839</v>
+        <v>13.52330427768391</v>
       </c>
       <c r="C233">
-        <v>4.623197784201218</v>
+        <v>0.3467639525871195</v>
       </c>
       <c r="D233">
-        <v>5.859035032466115</v>
+        <v>0.4565768903443819</v>
       </c>
       <c r="E233">
-        <v>0.9516993918607105</v>
+        <v>5.442024409449064</v>
       </c>
       <c r="F233">
-        <v>20.49580271450953</v>
+        <v>15.19128707772698</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.9322792240712469</v>
+        <v>13.51594145600403</v>
       </c>
       <c r="C234">
-        <v>4.611099149013378</v>
+        <v>0.3440200999536644</v>
       </c>
       <c r="D234">
-        <v>5.847500478195489</v>
+        <v>0.4492185967891468</v>
       </c>
       <c r="E234">
-        <v>0.9415967432740973</v>
+        <v>5.426806271360306</v>
       </c>
       <c r="F234">
-        <v>20.41439601794683</v>
+        <v>15.20141555419241</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.9271539280372124</v>
+        <v>13.50857999783699</v>
       </c>
       <c r="C235">
-        <v>4.599021507341172</v>
+        <v>0.3412970262924435</v>
       </c>
       <c r="D235">
-        <v>5.835981477457586</v>
+        <v>0.4419753158987644</v>
       </c>
       <c r="E235">
-        <v>0.9316004792770817</v>
+        <v>5.411598386134715</v>
       </c>
       <c r="F235">
-        <v>20.33306645956167</v>
+        <v>15.21149490322091</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9220618633037932</v>
+        <v>13.5012199079878</v>
       </c>
       <c r="C236">
-        <v>4.586964922486574</v>
+        <v>0.3385945882625103</v>
       </c>
       <c r="D236">
-        <v>5.824478033745883</v>
+        <v>0.434846114293182</v>
       </c>
       <c r="E236">
-        <v>0.9217100933909643</v>
+        <v>5.396401182552125</v>
       </c>
       <c r="F236">
-        <v>20.251814134709</v>
+        <v>15.22152625648441</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9170028785447581</v>
+        <v>13.49386119097404</v>
       </c>
       <c r="C237">
-        <v>4.574929456802491</v>
+        <v>0.3359126432890918</v>
       </c>
       <c r="D237">
-        <v>5.812990150274473</v>
+        <v>0.4278300376557229</v>
       </c>
       <c r="E237">
-        <v>0.9119250715117102</v>
+        <v>5.381215082680936</v>
       </c>
       <c r="F237">
-        <v>20.17063913993249</v>
+        <v>15.2315107278226</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9119768221852252</v>
+        <v>13.48650385121787</v>
       </c>
       <c r="C238">
-        <v>4.562915170842819</v>
+        <v>0.3332510495823872</v>
       </c>
       <c r="D238">
-        <v>5.801517829975741</v>
+        <v>0.4209261122073852</v>
       </c>
       <c r="E238">
-        <v>0.9022448900695327</v>
+        <v>5.366040497088763</v>
       </c>
       <c r="F238">
-        <v>20.08954157298062</v>
+        <v>15.2414494084425</v>
       </c>
     </row>
   </sheetData>
